--- a/src/attributions/attributions_saliency_traj_469.xlsx
+++ b/src/attributions/attributions_saliency_traj_469.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GG14"/>
+  <dimension ref="A1:GG15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.022823436069302e-05</v>
+        <v>0.004858608823269606</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001939754147315398</v>
+        <v>0.07132245600223541</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001247130567207932</v>
+        <v>0.005224904045462608</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0001905830722535029</v>
+        <v>0.02196274325251579</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0005647069192491472</v>
+        <v>0.01575196348130703</v>
       </c>
       <c r="F2" t="n">
-        <v>1.717653140076436e-05</v>
+        <v>0.01883189007639885</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001888999540824443</v>
+        <v>0.0009021861478686333</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0006619581254199147</v>
+        <v>0.03169742971658707</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0003429227799642831</v>
+        <v>0.06177708506584167</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001593813067302108</v>
+        <v>0.01773512735962868</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001678677654126659</v>
+        <v>0.05718287080526352</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001146623864769936</v>
+        <v>0.0005658455193042755</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0002005364367505535</v>
+        <v>0.0356341227889061</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0002079582482110709</v>
+        <v>0.0360933244228363</v>
       </c>
       <c r="O2" t="n">
-        <v>0.000148295919643715</v>
+        <v>0.02108196914196014</v>
       </c>
       <c r="P2" t="n">
-        <v>5.577132469625212e-05</v>
+        <v>0.005530941765755415</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006740880780853331</v>
+        <v>0.01452624797821045</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0004086363769602031</v>
+        <v>0.05824650079011917</v>
       </c>
       <c r="S2" t="n">
-        <v>4.371904651634395e-07</v>
+        <v>0.003777314908802509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0004954561009071767</v>
+        <v>0.0108437966555357</v>
       </c>
       <c r="U2" t="n">
-        <v>6.434315582737327e-05</v>
+        <v>0.01041878666728735</v>
       </c>
       <c r="V2" t="n">
-        <v>7.329003710765392e-05</v>
+        <v>0.009096171706914902</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0001675363891990855</v>
+        <v>0.0008301667403429747</v>
       </c>
       <c r="X2" t="n">
-        <v>9.411580322193913e-06</v>
+        <v>0.01187621988356113</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.00010084176028613</v>
+        <v>0.005386232398450375</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0001335453562205657</v>
+        <v>0.003828613553196192</v>
       </c>
       <c r="AA2" t="n">
-        <v>5.131130455993116e-05</v>
+        <v>0.003804194740951061</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.5498763686046e-05</v>
+        <v>0.01326406747102737</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0001195081422338262</v>
+        <v>0.003716205712407827</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.451717253075913e-05</v>
+        <v>0.02876567095518112</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0002946286404039711</v>
+        <v>0.004726060666143894</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.807304579415359e-05</v>
+        <v>0.00660665100440383</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.821816113078967e-05</v>
+        <v>0.01978455856442451</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0001330938684986904</v>
+        <v>0.003112748265266418</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0002436480135656893</v>
+        <v>0.0108047341927886</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0003962482733186334</v>
+        <v>0.0002149161882698536</v>
       </c>
       <c r="AK2" t="n">
-        <v>3.20041726808995e-06</v>
+        <v>0.005901900585740805</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0002099395205732435</v>
+        <v>0.006699255667626858</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0002205645723734051</v>
+        <v>0.003408890450373292</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.227799920248799e-05</v>
+        <v>0.0002728128747548908</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0001646606251597404</v>
+        <v>0.01602398790419102</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.235591753356857e-05</v>
+        <v>0.01237685047090054</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.0001204376894747838</v>
+        <v>0.005200657993555069</v>
       </c>
       <c r="AR2" t="n">
-        <v>5.077446257928386e-05</v>
+        <v>0.008139407262206078</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.024073728534859e-05</v>
+        <v>0.00423846859484911</v>
       </c>
       <c r="AT2" t="n">
-        <v>4.868780524702743e-05</v>
+        <v>0.004153801128268242</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0001379645400447771</v>
+        <v>0.05602898076176643</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0006377446698024869</v>
+        <v>0.007624452468007803</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0001781541213858873</v>
+        <v>0.01212265994399786</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0001396452717017382</v>
+        <v>0.02139810472726822</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0003069446538574994</v>
+        <v>0.005989032797515392</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0001123794936574996</v>
+        <v>0.02226714789867401</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0004558509099297225</v>
+        <v>0.001697429572232068</v>
       </c>
       <c r="BB2" t="n">
-        <v>4.973716931999661e-05</v>
+        <v>0.01615142822265625</v>
       </c>
       <c r="BC2" t="n">
-        <v>3.846378240268677e-05</v>
+        <v>0.006472441833466291</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.000137555121909827</v>
+        <v>0.008356781676411629</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.0003362495335750282</v>
+        <v>0.01134651899337769</v>
       </c>
       <c r="BF2" t="n">
-        <v>8.715600415598601e-05</v>
+        <v>0.0002972509246319532</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0004035253950860351</v>
+        <v>0.01329950895160437</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0001525163825135678</v>
+        <v>0.02425804734230042</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0001037997135426849</v>
+        <v>0.00360042555257678</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0001801432226784527</v>
+        <v>0.0104032289236784</v>
       </c>
       <c r="BK2" t="n">
-        <v>2.408554064459167e-05</v>
+        <v>0.04728471487760544</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.546446583233774e-05</v>
+        <v>0.00626553175970912</v>
       </c>
       <c r="BM2" t="n">
-        <v>7.282699516508728e-05</v>
+        <v>0.01034356933087111</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0002686769585125148</v>
+        <v>0.0005136530380696058</v>
       </c>
       <c r="BO2" t="n">
-        <v>5.155296094017103e-05</v>
+        <v>0.007745637558400631</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0001663862494751811</v>
+        <v>0.05082781612873077</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0001507547276560217</v>
+        <v>0.0143874017521739</v>
       </c>
       <c r="BR2" t="n">
-        <v>3.795052180066705e-05</v>
+        <v>0.008963948115706444</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0001477037440054119</v>
+        <v>0.003796042408794165</v>
       </c>
       <c r="BT2" t="n">
-        <v>9.853360097622499e-05</v>
+        <v>0.0130225345492363</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0001412473066011444</v>
+        <v>0.001242356724105775</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.248855915036984e-05</v>
+        <v>0.03569778800010681</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0003250404843129218</v>
+        <v>0.01558982022106647</v>
       </c>
       <c r="BX2" t="n">
-        <v>1.45576868817443e-05</v>
+        <v>0.01402324251830578</v>
       </c>
       <c r="BY2" t="n">
-        <v>9.277294884668663e-05</v>
+        <v>0.0004364836495369673</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0001520953373983502</v>
+        <v>0.006403504870831966</v>
       </c>
       <c r="CA2" t="n">
-        <v>6.924516492290422e-05</v>
+        <v>0.001756946323439479</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.0001412286947015673</v>
+        <v>0.002138874726369977</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0001793850969988853</v>
+        <v>0.004783318378031254</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.483782216382679e-05</v>
+        <v>0.0004683654988184571</v>
       </c>
       <c r="CE2" t="n">
-        <v>4.057275873492472e-05</v>
+        <v>0.01162859052419662</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0002269200194859877</v>
+        <v>0.005593833513557911</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.65679375641048e-05</v>
+        <v>0.0007763924659229815</v>
       </c>
       <c r="CH2" t="n">
-        <v>8.840583905111998e-05</v>
+        <v>0.002395227318629622</v>
       </c>
       <c r="CI2" t="n">
-        <v>4.955125041306019e-05</v>
+        <v>0.00307756382972002</v>
       </c>
       <c r="CJ2" t="n">
-        <v>3.310256943223067e-05</v>
+        <v>0.0001577825751155615</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.0001252586225746199</v>
+        <v>0.003788806032389402</v>
       </c>
       <c r="CL2" t="n">
-        <v>4.085848922841251e-05</v>
+        <v>0.01335454918444157</v>
       </c>
       <c r="CM2" t="n">
-        <v>7.071372965583578e-05</v>
+        <v>0.02156591601669788</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0003622682706918567</v>
+        <v>0.01426036190241575</v>
       </c>
       <c r="CO2" t="n">
-        <v>4.219098627800122e-05</v>
+        <v>0.0001594468485563993</v>
       </c>
       <c r="CP2" t="n">
-        <v>7.281923171831295e-05</v>
+        <v>0.01077665109187365</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0001798535231500864</v>
+        <v>0.01149892061948776</v>
       </c>
       <c r="CR2" t="n">
-        <v>5.053223139839247e-05</v>
+        <v>0.01194297801703215</v>
       </c>
       <c r="CS2" t="n">
-        <v>2.389925248280633e-05</v>
+        <v>0.01524183992296457</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0001523709215689451</v>
+        <v>0.03255921602249146</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0002629672235343605</v>
+        <v>0.01188178453594446</v>
       </c>
       <c r="CV2" t="n">
-        <v>5.089579281047918e-05</v>
+        <v>0.0002568796335253865</v>
       </c>
       <c r="CW2" t="n">
-        <v>6.764243153156713e-05</v>
+        <v>0.01215789094567299</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0002440350508550182</v>
+        <v>0.006156176794320345</v>
       </c>
       <c r="CY2" t="n">
-        <v>9.678639798949007e-06</v>
+        <v>0.002033152617514133</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.0001133588666561991</v>
+        <v>0.00626109354197979</v>
       </c>
       <c r="DA2" t="n">
-        <v>6.747319275746122e-05</v>
+        <v>0.001264799619093537</v>
       </c>
       <c r="DB2" t="n">
-        <v>3.349718463141471e-05</v>
+        <v>0.002040026010945439</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0001112158424803056</v>
+        <v>0.003617795649915934</v>
       </c>
       <c r="DD2" t="n">
-        <v>1.153214452642715e-05</v>
+        <v>0.008345424197614193</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0002547780750319362</v>
+        <v>0.008307947777211666</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0001421966444468126</v>
+        <v>0.02228358946740627</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0001932098966790363</v>
+        <v>0.006252055056393147</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0004122975515201688</v>
+        <v>0.01917950063943863</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0001232534559676424</v>
+        <v>0.002001740504056215</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.0001561118406243622</v>
+        <v>0.0006104774656705558</v>
       </c>
       <c r="DK2" t="n">
-        <v>8.000790694495663e-05</v>
+        <v>0.008411390706896782</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0001721207227092236</v>
+        <v>0.02604223415255547</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0001838017051341012</v>
+        <v>0.006287992000579834</v>
       </c>
       <c r="DN2" t="n">
-        <v>3.408892007428221e-05</v>
+        <v>0.002186226192861795</v>
       </c>
       <c r="DO2" t="n">
-        <v>2.325026798644103e-06</v>
+        <v>0.01227278914302588</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.574113023001701e-05</v>
+        <v>0.004030261188745499</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.695040555205196e-05</v>
+        <v>0.002459663897752762</v>
       </c>
       <c r="DR2" t="n">
-        <v>1.430642987543251e-05</v>
+        <v>0.001092456746846437</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0001690709323156625</v>
+        <v>0.0001593278429936618</v>
       </c>
       <c r="DT2" t="n">
-        <v>5.615183181362227e-05</v>
+        <v>0.01404660567641258</v>
       </c>
       <c r="DU2" t="n">
-        <v>1.111724850488827e-05</v>
+        <v>0.009906308725476265</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.0001708604104351252</v>
+        <v>0.007629372179508209</v>
       </c>
       <c r="DW2" t="n">
-        <v>7.602163532283157e-05</v>
+        <v>0.0005124129820615053</v>
       </c>
       <c r="DX2" t="n">
-        <v>5.289801993058063e-05</v>
+        <v>0.02732754871249199</v>
       </c>
       <c r="DY2" t="n">
-        <v>4.028777038911358e-05</v>
+        <v>0.003487769514322281</v>
       </c>
       <c r="DZ2" t="n">
-        <v>5.977408363833092e-07</v>
+        <v>0.002895111683756113</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0001013806322589517</v>
+        <v>0.006391825154423714</v>
       </c>
       <c r="EB2" t="n">
-        <v>6.289206794463098e-05</v>
+        <v>0.008932624012231827</v>
       </c>
       <c r="EC2" t="n">
-        <v>7.176704821176827e-05</v>
+        <v>0.005889417603611946</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0001313171960646287</v>
+        <v>0.01383450627326965</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.421750130248256e-05</v>
+        <v>0.002699139527976513</v>
       </c>
       <c r="EF2" t="n">
-        <v>2.256816515000537e-06</v>
+        <v>0.0009922732133418322</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0001086804986698553</v>
+        <v>0.0001370413228869438</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0001397091982653365</v>
+        <v>0.01016294024884701</v>
       </c>
       <c r="EI2" t="n">
-        <v>4.515597902354784e-05</v>
+        <v>0.001720157451927662</v>
       </c>
       <c r="EJ2" t="n">
-        <v>4.875905142398551e-05</v>
+        <v>0.01346644945442677</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0002237627923022956</v>
+        <v>0.0003210257855243981</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.595171852386557e-05</v>
+        <v>0.006044507492333651</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.00016951841826085</v>
+        <v>0.002529148943722248</v>
       </c>
       <c r="EN2" t="n">
-        <v>4.713387170340866e-05</v>
+        <v>0.01617663353681564</v>
       </c>
       <c r="EO2" t="n">
-        <v>9.370219777338207e-05</v>
+        <v>0.003167493036016822</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0001164716741186567</v>
+        <v>0.008010666817426682</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.446290480089374e-05</v>
+        <v>0.008254979737102985</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0001010501146083698</v>
+        <v>0.001985382288694382</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.0001756013080012053</v>
+        <v>0.01007205620408058</v>
       </c>
       <c r="ET2" t="n">
-        <v>6.107400258770213e-05</v>
+        <v>0.002719052135944366</v>
       </c>
       <c r="EU2" t="n">
-        <v>3.41639097314328e-05</v>
+        <v>0.01121371611952782</v>
       </c>
       <c r="EV2" t="n">
-        <v>5.329977284418419e-05</v>
+        <v>0.003275059629231691</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0001510436995886266</v>
+        <v>0.003333104774355888</v>
       </c>
       <c r="EX2" t="n">
-        <v>9.80880213319324e-06</v>
+        <v>0.002745053730905056</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.924745083670132e-05</v>
+        <v>0.01343523524701595</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0002444619312882423</v>
+        <v>0.004922083579003811</v>
       </c>
       <c r="FA2" t="n">
-        <v>2.422239731458831e-06</v>
+        <v>0.0005573234520852566</v>
       </c>
       <c r="FB2" t="n">
-        <v>9.832400246523321e-05</v>
+        <v>0.006436802912503481</v>
       </c>
       <c r="FC2" t="n">
-        <v>3.10708355755196e-06</v>
+        <v>0.003089801175519824</v>
       </c>
       <c r="FD2" t="n">
-        <v>4.693262962973677e-05</v>
+        <v>0.003554158611223102</v>
       </c>
       <c r="FE2" t="n">
-        <v>9.488908835919574e-05</v>
+        <v>0.001661231741309166</v>
       </c>
       <c r="FF2" t="n">
-        <v>4.052412987221032e-05</v>
+        <v>0.008339639753103256</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0001140716922236606</v>
+        <v>0.003799998899921775</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0001245560997631401</v>
+        <v>0.009707498364150524</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0002820276713464409</v>
+        <v>0.002941656159237027</v>
       </c>
       <c r="FJ2" t="n">
-        <v>6.268620927585289e-05</v>
+        <v>0.002374387811869383</v>
       </c>
       <c r="FK2" t="n">
-        <v>4.101994272787124e-05</v>
+        <v>0.01304224506020546</v>
       </c>
       <c r="FL2" t="n">
-        <v>8.89892689883709e-05</v>
+        <v>0.003887325059622526</v>
       </c>
       <c r="FM2" t="n">
-        <v>1.518403223599307e-05</v>
+        <v>0.005505742505192757</v>
       </c>
       <c r="FN2" t="n">
-        <v>3.300669777672738e-05</v>
+        <v>0.0008181568700820208</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0001493946037953719</v>
+        <v>0.002067324472591281</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0003517046279739588</v>
+        <v>0.00595211423933506</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0003096101572737098</v>
+        <v>0.007984117604792118</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0002279566833749413</v>
+        <v>0.004393045790493488</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0001554527261760086</v>
+        <v>0.003512433264404535</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0002285443333676085</v>
+        <v>0.001626811921596527</v>
       </c>
       <c r="FU2" t="n">
-        <v>5.175682235858403e-05</v>
+        <v>0.01786042749881744</v>
       </c>
       <c r="FV2" t="n">
-        <v>5.578982381848618e-06</v>
+        <v>0.0215088278055191</v>
       </c>
       <c r="FW2" t="n">
-        <v>6.344410212477669e-05</v>
+        <v>0.01311074011027813</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0001434814621461555</v>
+        <v>0.002057082019746304</v>
       </c>
       <c r="FY2" t="n">
-        <v>2.327584661543369e-05</v>
+        <v>0.01132978871464729</v>
       </c>
       <c r="FZ2" t="n">
-        <v>7.833984273020178e-05</v>
+        <v>0.006100901402533054</v>
       </c>
       <c r="GA2" t="n">
-        <v>1.848317333497107e-05</v>
+        <v>0.004438214935362339</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.0001078109053196386</v>
+        <v>0.007801971398293972</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.0001665806048549712</v>
+        <v>0.003149870317429304</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0001286787446588278</v>
+        <v>0.01722233928740025</v>
       </c>
       <c r="GE2" t="n">
-        <v>7.926459147711284e-06</v>
+        <v>0.01123045850545168</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0002156508999178186</v>
+        <v>0.005884808488190174</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.0001692997175268829</v>
+        <v>0.0001517495838925242</v>
       </c>
     </row>
     <row r="3">
@@ -2711,571 +2711,571 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01030374597758055</v>
+        <v>0.001694912789389491</v>
       </c>
       <c r="B5" t="n">
-        <v>0.008207636885344982</v>
+        <v>0.01261883322149515</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08490549027919769</v>
+        <v>0.003025155048817396</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03050654008984566</v>
+        <v>0.003374514635652304</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02840647473931313</v>
+        <v>0.00659368047490716</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01843421533703804</v>
+        <v>0.002571494551375508</v>
       </c>
       <c r="G5" t="n">
-        <v>0.008653737604618073</v>
+        <v>0.006670400034636259</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009669203427620232</v>
+        <v>0.0009169141412712634</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0106145553290844</v>
+        <v>0.007949796505272388</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01464645378291607</v>
+        <v>0.003646224969998002</v>
       </c>
       <c r="K5" t="n">
-        <v>0.004057685378938913</v>
+        <v>0.01359925139695406</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08505739271640778</v>
+        <v>0.001891112769953907</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03697234392166138</v>
+        <v>0.00238098157569766</v>
       </c>
       <c r="N5" t="n">
-        <v>0.004701646044850349</v>
+        <v>0.006899044383317232</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001967163057997823</v>
+        <v>0.0006431667134165764</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01119912043213844</v>
+        <v>0.004806333687156439</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.004030568990856409</v>
+        <v>0.0002774281310848892</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01584365405142307</v>
+        <v>0.006929701194167137</v>
       </c>
       <c r="S5" t="n">
-        <v>0.006005323491990566</v>
+        <v>0.001327550155110657</v>
       </c>
       <c r="T5" t="n">
-        <v>0.005986989475786686</v>
+        <v>0.00334344245493412</v>
       </c>
       <c r="U5" t="n">
-        <v>0.002184777753427625</v>
+        <v>0.0002887620939873159</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0008131891372613609</v>
+        <v>0.003212990937754512</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02205046080052853</v>
+        <v>0.006972507573664188</v>
       </c>
       <c r="X5" t="n">
-        <v>0.005937396083027124</v>
+        <v>0.003473160322755575</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0020122523419559</v>
+        <v>0.000950513465795666</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.008715953677892685</v>
+        <v>0.0006928303046151996</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.001208165194839239</v>
+        <v>7.088291749823838e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.004848835524171591</v>
+        <v>0.002635533921420574</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.008236980065703392</v>
+        <v>0.001454646699130535</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.005058617796748877</v>
+        <v>0.005330790765583515</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.009249364957213402</v>
+        <v>0.001715211081318557</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.01558073703199625</v>
+        <v>0.001445159665308893</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.004945672582834959</v>
+        <v>0.000713920802809298</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.0001629141188459471</v>
+        <v>4.311831435188651e-05</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0005251292604953051</v>
+        <v>0.003128852462396026</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.01789901405572891</v>
+        <v>0.0005295263254083693</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.004941028542816639</v>
+        <v>0.002629691734910011</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.002065716311335564</v>
+        <v>8.822273230180144e-05</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.01743682473897934</v>
+        <v>0.0001550859888084233</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.004293492063879967</v>
+        <v>0.001320198527537286</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.005694717168807983</v>
+        <v>0.0006418279372155666</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.0154220424592495</v>
+        <v>0.0007304074242711067</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.001284241210669279</v>
+        <v>0.0002503273426555097</v>
       </c>
       <c r="AR5" t="n">
-        <v>7.771480886731297e-05</v>
+        <v>0.001228309236466885</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0007617954979650676</v>
+        <v>0.001150815631262958</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.004786424804478884</v>
+        <v>0.001891535241156816</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.007880358025431633</v>
+        <v>0.006866172887384892</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.04376553744077682</v>
+        <v>0.003186912974342704</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.003234757110476494</v>
+        <v>0.005003273952752352</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.004088648594915867</v>
+        <v>0.0003538683522492647</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.006784741766750813</v>
+        <v>0.001662085065618157</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.003498062957078218</v>
+        <v>0.006441116333007812</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.01556796580553055</v>
+        <v>0.0001646510791033506</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.01599740795791149</v>
+        <v>0.003917173482477665</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.002825602423399687</v>
+        <v>0.0005507002351805568</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.002490700222551823</v>
+        <v>0.008063919842243195</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.02117220684885979</v>
+        <v>0.004340499639511108</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.01871713064610958</v>
+        <v>0.000820333487354219</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.02263016067445278</v>
+        <v>0.0005980376154184341</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.01202874630689621</v>
+        <v>0.002061293693259358</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.00484887883067131</v>
+        <v>0.0009514042176306248</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.01314438041299582</v>
+        <v>0.001466838293708861</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.007079172413796186</v>
+        <v>0.0002216914726886898</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.003746694652363658</v>
+        <v>0.0002521201386116445</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.006709552835673094</v>
+        <v>0.0003687015851028264</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.01976874284446239</v>
+        <v>0.002246157731860876</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.005812630988657475</v>
+        <v>0.00176589039620012</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.01259392220526934</v>
+        <v>0.008316517807543278</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.0004476304457057267</v>
+        <v>0.00142063049133867</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.008058906532824039</v>
+        <v>0.0006994657451286912</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.004911364521831274</v>
+        <v>0.006047696806490421</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.002956294687464833</v>
+        <v>0.0003538237942848355</v>
       </c>
       <c r="BU5" t="n">
-        <v>8.021853864192963e-05</v>
+        <v>0.001113238278776407</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.004326456226408482</v>
+        <v>0.001692339079454541</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.02346556261181831</v>
+        <v>0.001832596259191632</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.002366022206842899</v>
+        <v>0.003592291846871376</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.001859093434177339</v>
+        <v>0.002371362876147032</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.0173252560198307</v>
+        <v>0.0003896724083460867</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.00329625210724771</v>
+        <v>0.003649113699793816</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.01358562987297773</v>
+        <v>0.003947858698666096</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.006157686468213797</v>
+        <v>0.002878003055229783</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.003970388788729906</v>
+        <v>0.0004549866425804794</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.0112925935536623</v>
+        <v>0.00256182299926877</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.01674113795161247</v>
+        <v>0.0004264689923729748</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.005847600288689137</v>
+        <v>0.0009981925832107663</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.001748639857396483</v>
+        <v>0.001200038474053144</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.005752879660576582</v>
+        <v>0.0005997598636895418</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.00393697852268815</v>
+        <v>0.0007767986971884966</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.0007358190487138927</v>
+        <v>0.0006200618809089065</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.003046547994017601</v>
+        <v>8.615307160653174e-05</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.0009872571099549532</v>
+        <v>0.003594452049583197</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.007990265265107155</v>
+        <v>0.004679652862250805</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.003351855324581265</v>
+        <v>0.001000977121293545</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.004019287414848804</v>
+        <v>0.005425681360065937</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.001366436248645186</v>
+        <v>0.007661502342671156</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.005450028926134109</v>
+        <v>9.33879055082798e-05</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.002522218273952603</v>
+        <v>0.001995183527469635</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.000442635384388268</v>
+        <v>0.001298263086937368</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.01296578347682953</v>
+        <v>0.00360071798786521</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.004196933005005121</v>
+        <v>0.0007014383445493877</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.008653809316456318</v>
+        <v>0.001940806745551527</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.01656398735940456</v>
+        <v>0.0006727827712893486</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.004955184645950794</v>
+        <v>4.464449739316478e-05</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.004360276740044355</v>
+        <v>0.0002970341884065419</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.005430864170193672</v>
+        <v>0.001222116989083588</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.002742259064689279</v>
+        <v>0.001012075575999916</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.0008574338280595839</v>
+        <v>0.001525683794170618</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.003877124516293406</v>
+        <v>0.0008876745705492795</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.004540885798633099</v>
+        <v>0.003943359944969416</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.02845398150384426</v>
+        <v>0.001457970240153372</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.005183776374906301</v>
+        <v>0.001419120002537966</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.003208998125046492</v>
+        <v>0.004465436097234488</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.005327882710844278</v>
+        <v>0.003931304905563593</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.002760500181466341</v>
+        <v>0.0001055102329701185</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.01236472837626934</v>
+        <v>0.001025485573336482</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.007711270824074745</v>
+        <v>0.001618881360627711</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.004249044694006443</v>
+        <v>0.004805845208466053</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.0008533752989023924</v>
+        <v>0.003037011716514826</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.01611113920807838</v>
+        <v>0.001992406789213419</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.001821480691432953</v>
+        <v>0.001881466945633292</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.003382838796824217</v>
+        <v>0.001253043883480132</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.005475162528455257</v>
+        <v>0.000792226055637002</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.009983218275010586</v>
+        <v>5.627554492093623e-05</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.00834222324192524</v>
+        <v>0.0006517480360344052</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.006108116824179888</v>
+        <v>0.001333140768110752</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.0007214694051072001</v>
+        <v>0.00275228382088244</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.006442156154662371</v>
+        <v>0.0005179023137316108</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.004379075486212969</v>
+        <v>0.005369256716221571</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.009338637813925743</v>
+        <v>0.0007303829188458622</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.005565791856497526</v>
+        <v>0.002697786316275597</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.000409506494179368</v>
+        <v>0.001069304416887462</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.006271569523960352</v>
+        <v>0.0001444801455363631</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.00547789316624403</v>
+        <v>0.001103837275877595</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.001106449402868748</v>
+        <v>0.001288886996917427</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.001945622731000185</v>
+        <v>0.001281970413401723</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.005434016231447458</v>
+        <v>5.153400707058609e-06</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.004807501100003719</v>
+        <v>0.001156279467977583</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.01743225008249283</v>
+        <v>0.0001502173690823838</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.01340291742235422</v>
+        <v>0.001320329261943698</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.001855604350566864</v>
+        <v>0.000909418158698827</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.02163122594356537</v>
+        <v>0.0003137079766020179</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.00209641270339489</v>
+        <v>0.002583665773272514</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.002289377152919769</v>
+        <v>0.0003266082203481346</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.002300320658832788</v>
+        <v>0.0001333719992544502</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.0007527549169026315</v>
+        <v>0.002445830265060067</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.002547837560996413</v>
+        <v>0.0004555586783681065</v>
       </c>
       <c r="EQ5" t="n">
-        <v>7.118214853107929e-05</v>
+        <v>0.001001121592707932</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.001056018751114607</v>
+        <v>0.0001773727999534458</v>
       </c>
       <c r="ES5" t="n">
-        <v>8.58440762385726e-06</v>
+        <v>0.0009680456132628024</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.009531125426292419</v>
+        <v>0.004844390321522951</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.004528915509581566</v>
+        <v>0.0007141767418943346</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.005009043961763382</v>
+        <v>0.0008640633895993233</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.009423003531992435</v>
+        <v>0.0002131056971848011</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.00545133464038372</v>
+        <v>0.001073425635695457</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.006985422223806381</v>
+        <v>0.002417052630335093</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.01530446670949459</v>
+        <v>0.0002007691218750551</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.005722753703594208</v>
+        <v>0.001056938199326396</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.0033477155957371</v>
+        <v>0.0002711289853323251</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.003181227715685964</v>
+        <v>0.0005252495757304132</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.002852223813533783</v>
+        <v>0.0005966223543509841</v>
       </c>
       <c r="FE5" t="n">
-        <v>8.092561620287597e-05</v>
+        <v>0.001625892124138772</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.00349376886151731</v>
+        <v>0.0007904054946266115</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.0003652444574981928</v>
+        <v>0.001695792539976537</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.01052569877356291</v>
+        <v>0.001686768839135766</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.0158524215221405</v>
+        <v>0.001092141028493643</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.001172121148556471</v>
+        <v>0.0006136386655271053</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.01469767931848764</v>
+        <v>0.0004842461785301566</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.01065993029624224</v>
+        <v>0.004260447341948748</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.001804889878258109</v>
+        <v>0.0007525283144786954</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.00112731836270541</v>
+        <v>0.002133035799488425</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.0004960231017321348</v>
+        <v>0.00479792058467865</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.006747369654476643</v>
+        <v>0.001076521584764123</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.02307679131627083</v>
+        <v>0.003147169249132276</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.008651056326925755</v>
+        <v>0.002031306736171246</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.00704493559896946</v>
+        <v>0.00219107954762876</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.005809032823890448</v>
+        <v>0.00161265954375267</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.01300676539540291</v>
+        <v>0.002837951527908444</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.006363105960190296</v>
+        <v>0.0004417742020450532</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.006115173920989037</v>
+        <v>0.002120611257851124</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.002849898766726255</v>
+        <v>0.003094705985859036</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.00311855529434979</v>
+        <v>0.002799336332827806</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.008074965327978134</v>
+        <v>0.0003724632260855287</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.009214060381054878</v>
+        <v>0.002776868175715208</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.003279862459748983</v>
+        <v>0.001529067405499518</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.01748413778841496</v>
+        <v>0.002881943713873625</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.001750218332745135</v>
+        <v>0.001420363900251687</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.002745736390352249</v>
+        <v>0.002803615760058165</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.006025969982147217</v>
+        <v>0.006817639339715242</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.000106403196696192</v>
+        <v>0.0008040187531150877</v>
       </c>
     </row>
     <row r="6">
@@ -3849,4554 +3849,5123 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.113524675369263</v>
+        <v>0.002361772349104285</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4400701820850372</v>
+        <v>0.0786978155374527</v>
       </c>
       <c r="C7" t="n">
-        <v>2.136036157608032</v>
+        <v>0.004136876203119755</v>
       </c>
       <c r="D7" t="n">
-        <v>1.453189849853516</v>
+        <v>0.05560679733753204</v>
       </c>
       <c r="E7" t="n">
-        <v>1.459781527519226</v>
+        <v>0.01559466775506735</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02954187244176865</v>
+        <v>0.002543284557759762</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7137027382850647</v>
+        <v>0.008243342861533165</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02075724303722382</v>
+        <v>0.01557026989758015</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8158043622970581</v>
+        <v>0.01939420960843563</v>
       </c>
       <c r="J7" t="n">
-        <v>3.180821657180786</v>
+        <v>0.005010260734707117</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04372689872980118</v>
+        <v>0.06493858247995377</v>
       </c>
       <c r="L7" t="n">
-        <v>2.332973003387451</v>
+        <v>0.001996905310079455</v>
       </c>
       <c r="M7" t="n">
-        <v>1.386046409606934</v>
+        <v>0.05064778029918671</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7387065887451172</v>
+        <v>0.02910900115966797</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1521637141704559</v>
+        <v>0.01857699826359749</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5651077628135681</v>
+        <v>0.003507414367049932</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5298018455505371</v>
+        <v>0.006791154853999615</v>
       </c>
       <c r="R7" t="n">
-        <v>1.02497136592865</v>
+        <v>0.01270224340260029</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2384684681892395</v>
+        <v>0.002161146141588688</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3322582244873047</v>
+        <v>0.01345623098313808</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2862234115600586</v>
+        <v>0.002146537648513913</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1207845062017441</v>
+        <v>0.002658142242580652</v>
       </c>
       <c r="W7" t="n">
-        <v>0.09826172888278961</v>
+        <v>0.01171176787465811</v>
       </c>
       <c r="X7" t="n">
-        <v>0.05363777279853821</v>
+        <v>0.009364028461277485</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.03269009292125702</v>
+        <v>0.01035092119127512</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1648969054222107</v>
+        <v>0.0078524025157094</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1066968739032745</v>
+        <v>0.01043177396059036</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.421987384557724</v>
+        <v>0.0102284736931324</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.150509238243103</v>
+        <v>0.01184620894491673</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.07167530059814453</v>
+        <v>0.001614955952391028</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.3070424795150757</v>
+        <v>0.0004417011514306068</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.1842077523469925</v>
+        <v>0.00791114941239357</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.2174166440963745</v>
+        <v>0.01110590063035488</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.2609450817108154</v>
+        <v>0.006033179350197315</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.06787946820259094</v>
+        <v>0.007142866030335426</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.2664979696273804</v>
+        <v>0.00243111071176827</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.566272497177124</v>
+        <v>0.004787830635905266</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.6679470539093018</v>
+        <v>0.002969601424410939</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.2840678095817566</v>
+        <v>0.002045202301815152</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.2737220227718353</v>
+        <v>0.004545870237052441</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.08626463264226913</v>
+        <v>0.009263090789318085</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.09564132988452911</v>
+        <v>0.004469956271350384</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.02618387341499329</v>
+        <v>0.007174662314355373</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.4946511685848236</v>
+        <v>0.0001713810488581657</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.1074274182319641</v>
+        <v>0.000265357899479568</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.499213337898254</v>
+        <v>0.01111029367893934</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.8191918134689331</v>
+        <v>0.05332135409116745</v>
       </c>
       <c r="AV7" t="n">
-        <v>1.479584455490112</v>
+        <v>0.0116922901943326</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.03906240314245224</v>
+        <v>0.0112376194447279</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.3206450939178467</v>
+        <v>0.002096113748848438</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.4725551605224609</v>
+        <v>0.004308057948946953</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.7133323550224304</v>
+        <v>0.003384667448699474</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.163653701543808</v>
+        <v>0.01457804441452026</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.2218514382839203</v>
+        <v>0.002153226174414158</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.3377571403980255</v>
+        <v>0.008823158219456673</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.1421119272708893</v>
+        <v>0.01359327137470245</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.3922077715396881</v>
+        <v>0.02237892895936966</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.7798817157745361</v>
+        <v>0.01581601426005363</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.149182677268982</v>
+        <v>0.02719457633793354</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.05257967859506607</v>
+        <v>0.0009155147708952427</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.591948390007019</v>
+        <v>0.001730818417854607</v>
       </c>
       <c r="BJ7" t="n">
-        <v>1.150279641151428</v>
+        <v>0.0136819202452898</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.3185116946697235</v>
+        <v>0.006961189210414886</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.2797601819038391</v>
+        <v>0.0162266381084919</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.4979033470153809</v>
+        <v>0.007845576852560043</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.5201160907745361</v>
+        <v>0.002818798180669546</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.05481068789958954</v>
+        <v>0.0004193212371319532</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.4143418669700623</v>
+        <v>0.01592737436294556</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.6695672869682312</v>
+        <v>0.01075575686991215</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.07822524756193161</v>
+        <v>0.00257783243432641</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.3782860040664673</v>
+        <v>0.01295379083603621</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.06429075449705124</v>
+        <v>0.004821024369448423</v>
       </c>
       <c r="BU7" t="n">
-        <v>1.311115980148315</v>
+        <v>0.004855489358305931</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.5383921265602112</v>
+        <v>0.02298696897923946</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.5971090793609619</v>
+        <v>0.0007799459854140878</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.2918001711368561</v>
+        <v>0.002359438687562943</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.3223135769367218</v>
+        <v>0.00888310931622982</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.4710222482681274</v>
+        <v>0.001826961524784565</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.1641982197761536</v>
+        <v>0.006987580098211765</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.2892690300941467</v>
+        <v>0.005176810547709465</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.05583957582712173</v>
+        <v>0.003457405604422092</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.708746612071991</v>
+        <v>0.003001181175932288</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.6939024925231934</v>
+        <v>0.01362071186304092</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.3522984087467194</v>
+        <v>0.004217575769871473</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.146951824426651</v>
+        <v>0.005745534785091877</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.2562395930290222</v>
+        <v>0.002670907881110907</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.03144288808107376</v>
+        <v>0.0005807081470265985</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.1416130512952805</v>
+        <v>0.00243968446739018</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.01437623053789139</v>
+        <v>0.0002255266299471259</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.127374678850174</v>
+        <v>0.004263810347765684</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.1521938592195511</v>
+        <v>0.01705698668956757</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.3487666845321655</v>
+        <v>0.004972490482032299</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.06144940108060837</v>
+        <v>0.0008306448580697179</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.304097056388855</v>
+        <v>0.01876819506287575</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.2723256051540375</v>
+        <v>0.0108618475496769</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.4208900034427643</v>
+        <v>0.007300222292542458</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.5106779336929321</v>
+        <v>0.01451478432863951</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.6398141384124756</v>
+        <v>0.01295130513608456</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.04503848403692245</v>
+        <v>0.001575297676026821</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.6205808520317078</v>
+        <v>0.002360391430556774</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.6555282473564148</v>
+        <v>0.01136164274066687</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.3423711657524109</v>
+        <v>0.007280953694134951</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.007054612040519714</v>
+        <v>0.009231779724359512</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.4524879157543182</v>
+        <v>0.003671016078442335</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.004295773804187775</v>
+        <v>0.002017584396526217</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.1315648853778839</v>
+        <v>0.004113529808819294</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.04248714447021484</v>
+        <v>0.001712583471089602</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.1196184456348419</v>
+        <v>0.003435833845287561</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.02429638244211674</v>
+        <v>0.004717419855296612</v>
       </c>
       <c r="DF7" t="n">
-        <v>1.718061923980713</v>
+        <v>0.00340259145013988</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.9049848318099976</v>
+        <v>0.009298047982156277</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.2439359426498413</v>
+        <v>0.009454097598791122</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.08468633890151978</v>
+        <v>0.01813492923974991</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.05186857283115387</v>
+        <v>0.0003123870119452477</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.3331979513168335</v>
+        <v>0.005635639652609825</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.4285004436969757</v>
+        <v>0.009612396359443665</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.3409184813499451</v>
+        <v>0.01237011142075062</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.2659070789813995</v>
+        <v>0.000363773200660944</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.6011122465133667</v>
+        <v>0.001855631824582815</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.2160129249095917</v>
+        <v>0.00322366738691926</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.1028360649943352</v>
+        <v>0.004464928060770035</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.1209019869565964</v>
+        <v>0.00699948612600565</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.4169915020465851</v>
+        <v>0.007445344235748053</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.01239898800849915</v>
+        <v>0.0006058535072952509</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.3368895053863525</v>
+        <v>0.008837655186653137</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.2754010558128357</v>
+        <v>0.007076510228216648</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.1699604094028473</v>
+        <v>0.002096256241202354</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.01948986202478409</v>
+        <v>0.0008168870699591935</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.06363128125667572</v>
+        <v>0.0139522161334753</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.1379754394292831</v>
+        <v>0.005664042197167873</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.399342954158783</v>
+        <v>0.004247532226145267</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.4638792872428894</v>
+        <v>0.003090759506449103</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.1298906207084656</v>
+        <v>0.003965743817389011</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.5328944325447083</v>
+        <v>0.001962698996067047</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.2830672562122345</v>
+        <v>8.311192505061626e-05</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.9339194297790527</v>
+        <v>0.001622207462787628</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.4235408008098602</v>
+        <v>0.01161682140082121</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.366985410451889</v>
+        <v>0.00826143566519022</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.1569767892360687</v>
+        <v>0.005402150098234415</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.2989496290683746</v>
+        <v>0.007371880114078522</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.6282479166984558</v>
+        <v>0.00348268635571003</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.04821313172578812</v>
+        <v>0.004352064803242683</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.2885512113571167</v>
+        <v>0.001702571520581841</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.09193067252635956</v>
+        <v>0.003599550109356642</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.1014146506786346</v>
+        <v>0.001722821965813637</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.7561412453651428</v>
+        <v>0.007612128742039204</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.2960918545722961</v>
+        <v>0.008413617499172688</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.1597035378217697</v>
+        <v>0.0002416166244074702</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.4935703873634338</v>
+        <v>0.00497409887611866</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.4275040030479431</v>
+        <v>0.0005741510540246964</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.5490448474884033</v>
+        <v>0.009432164952158928</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.1925531774759293</v>
+        <v>0.01185330934822559</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.1694876402616501</v>
+        <v>0.00539892166852951</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.6705999970436096</v>
+        <v>0.0004898594925180078</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.5227779150009155</v>
+        <v>0.01195278950035572</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.3556354641914368</v>
+        <v>0.00317831989377737</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.05782971531152725</v>
+        <v>0.006737601477652788</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.4247028231620789</v>
+        <v>0.003141284920275211</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.2216500788927078</v>
+        <v>0.003027603263035417</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.15715292096138</v>
+        <v>0.003356299130246043</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.1970583498477936</v>
+        <v>0.0009248381247743964</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.1295623183250427</v>
+        <v>0.005321344826370478</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.5426651239395142</v>
+        <v>0.001208721776492894</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.1554882079362869</v>
+        <v>0.00590679282322526</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.3314515650272369</v>
+        <v>0.01068236399441957</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.2847557961940765</v>
+        <v>0.01028515957295895</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.1735019087791443</v>
+        <v>0.003400306915864348</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.3828247785568237</v>
+        <v>0.007069469429552555</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.3588519394397736</v>
+        <v>0.00191901158541441</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.008640684187412262</v>
+        <v>0.00159275543410331</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.2343704104423523</v>
+        <v>0.005914398469030857</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.2771790027618408</v>
+        <v>0.0002566603943705559</v>
       </c>
       <c r="FQ7" t="n">
-        <v>1.331743240356445</v>
+        <v>0.008292078971862793</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.02571618556976318</v>
+        <v>0.006794223561882973</v>
       </c>
       <c r="FS7" t="n">
-        <v>1.125346541404724</v>
+        <v>0.001928437734022737</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.4256075918674469</v>
+        <v>0.0008015413768589497</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.07052451372146606</v>
+        <v>0.0008388618007302284</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.193199023604393</v>
+        <v>0.006161231081932783</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.4056809544563293</v>
+        <v>0.00211715791374445</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.0224152896553278</v>
+        <v>0.01004256960004568</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.05146420001983643</v>
+        <v>0.01418653316795826</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.5751135349273682</v>
+        <v>0.007053710985928774</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.1854294091463089</v>
+        <v>0.003961518406867981</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.09028395265340805</v>
+        <v>0.00405857851728797</v>
       </c>
       <c r="GC7" t="n">
-        <v>1.006140232086182</v>
+        <v>0.007744939997792244</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.3765911459922791</v>
+        <v>0.01620415970683098</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.09463392943143845</v>
+        <v>0.02483719401061535</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.2542586624622345</v>
+        <v>0.00423933332785964</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.2537757158279419</v>
+        <v>0.009501399472355843</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0001158503873739392</v>
+        <v>0.001183612854219973</v>
       </c>
       <c r="B8" t="n">
-        <v>4.106602136744186e-05</v>
+        <v>0.009030566550791264</v>
       </c>
       <c r="C8" t="n">
-        <v>1.320751107414253e-05</v>
+        <v>0.0006644478417001665</v>
       </c>
       <c r="D8" t="n">
-        <v>5.947189492871985e-05</v>
+        <v>0.005296670831739902</v>
       </c>
       <c r="E8" t="n">
-        <v>3.910630039172247e-05</v>
+        <v>0.001710657496005297</v>
       </c>
       <c r="F8" t="n">
-        <v>4.884711870545289e-07</v>
+        <v>0.006016894709318876</v>
       </c>
       <c r="G8" t="n">
-        <v>2.558691448939499e-05</v>
+        <v>0.0007689015474170446</v>
       </c>
       <c r="H8" t="n">
-        <v>1.073865587386535e-05</v>
+        <v>0.001914486521854997</v>
       </c>
       <c r="I8" t="n">
-        <v>1.344120028079487e-05</v>
+        <v>0.0004243147850502282</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001172087431768887</v>
+        <v>0.002623932203277946</v>
       </c>
       <c r="K8" t="n">
-        <v>7.378391728707356e-07</v>
+        <v>0.006957152858376503</v>
       </c>
       <c r="L8" t="n">
-        <v>3.915888009942137e-05</v>
+        <v>8.242539479397237e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>3.629346974776126e-05</v>
+        <v>0.004741862881928682</v>
       </c>
       <c r="N8" t="n">
-        <v>6.149749242467806e-05</v>
+        <v>0.001794175826944411</v>
       </c>
       <c r="O8" t="n">
-        <v>1.08051626739325e-05</v>
+        <v>0.006538770627230406</v>
       </c>
       <c r="P8" t="n">
-        <v>3.622888470999897e-05</v>
+        <v>0.000140571326483041</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.423714275006205e-05</v>
+        <v>0.000430060550570488</v>
       </c>
       <c r="R8" t="n">
-        <v>3.212300725863315e-05</v>
+        <v>0.0003487257054075599</v>
       </c>
       <c r="S8" t="n">
-        <v>7.877311873016879e-06</v>
+        <v>0.0006482256576418877</v>
       </c>
       <c r="T8" t="n">
-        <v>8.990798050945159e-06</v>
+        <v>0.001292341388761997</v>
       </c>
       <c r="U8" t="n">
-        <v>7.953188287501689e-06</v>
+        <v>0.0005236914148554206</v>
       </c>
       <c r="V8" t="n">
-        <v>4.965689640812343e-06</v>
+        <v>0.001062436029314995</v>
       </c>
       <c r="W8" t="n">
-        <v>4.732457455247641e-06</v>
+        <v>0.0005067113088443875</v>
       </c>
       <c r="X8" t="n">
-        <v>6.344170742522692e-06</v>
+        <v>0.0005763855879195035</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.255045951140346e-06</v>
+        <v>0.001096672145649791</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.706750708763138e-06</v>
+        <v>0.0006279092049226165</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.029460418067174e-05</v>
+        <v>0.001009565778076649</v>
       </c>
       <c r="AB8" t="n">
-        <v>5.725356004404603e-06</v>
+        <v>7.073371671140194e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.201360171573469e-07</v>
+        <v>0.000947076827287674</v>
       </c>
       <c r="AD8" t="n">
-        <v>3.779834150918759e-05</v>
+        <v>0.0002521107671782374</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.179714308818802e-05</v>
+        <v>3.543967613950372e-05</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.395730113377795e-06</v>
+        <v>0.0004655607044696808</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.977233276003972e-06</v>
+        <v>0.0002069129113806412</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.661000897001941e-05</v>
+        <v>0.0008677722653374076</v>
       </c>
       <c r="AI8" t="n">
-        <v>4.787046691490104e-06</v>
+        <v>0.0004781704919878393</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5.873777354281629e-06</v>
+        <v>0.000337753037456423</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.470732397341635e-05</v>
+        <v>0.0007919815252535045</v>
       </c>
       <c r="AL8" t="n">
-        <v>5.959712325420696e-06</v>
+        <v>0.001375863794237375</v>
       </c>
       <c r="AM8" t="n">
-        <v>7.567018656118307e-06</v>
+        <v>0.0004652994684875011</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.517924819287146e-06</v>
+        <v>0.0003145324299111962</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.37836368594435e-05</v>
+        <v>0.000428431638283655</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.248948137799744e-05</v>
+        <v>0.001188328256830573</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.370683548884699e-07</v>
+        <v>0.0002052040072157979</v>
       </c>
       <c r="AR8" t="n">
-        <v>5.20012463312014e-06</v>
+        <v>0.0005065644509159029</v>
       </c>
       <c r="AS8" t="n">
-        <v>4.806383458344499e-06</v>
+        <v>0.001282300800085068</v>
       </c>
       <c r="AT8" t="n">
-        <v>6.096737342886627e-05</v>
+        <v>0.0007941760704852641</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.102699212031439e-06</v>
+        <v>0.005835086572915316</v>
       </c>
       <c r="AV8" t="n">
-        <v>1.813309245335404e-05</v>
+        <v>0.0004718105192296207</v>
       </c>
       <c r="AW8" t="n">
-        <v>1.043877182382857e-05</v>
+        <v>0.000129997351905331</v>
       </c>
       <c r="AX8" t="n">
-        <v>5.803089607070433e-06</v>
+        <v>6.413127994164824e-05</v>
       </c>
       <c r="AY8" t="n">
-        <v>1.693802732916083e-05</v>
+        <v>0.003321431111544371</v>
       </c>
       <c r="AZ8" t="n">
-        <v>1.195031745737651e-05</v>
+        <v>0.0004727235063910484</v>
       </c>
       <c r="BA8" t="n">
-        <v>2.904380562540609e-05</v>
+        <v>0.001994577934965491</v>
       </c>
       <c r="BB8" t="n">
-        <v>1.720870045573974e-06</v>
+        <v>0.001927939476445317</v>
       </c>
       <c r="BC8" t="n">
-        <v>2.000410495384131e-05</v>
+        <v>0.001484662527218461</v>
       </c>
       <c r="BD8" t="n">
-        <v>4.344474291428924e-06</v>
+        <v>0.001668471843004227</v>
       </c>
       <c r="BE8" t="n">
-        <v>9.933961337083019e-06</v>
+        <v>0.002425901824608445</v>
       </c>
       <c r="BF8" t="n">
-        <v>4.474840807233704e-06</v>
+        <v>0.001711077988147736</v>
       </c>
       <c r="BG8" t="n">
-        <v>2.369905996602029e-05</v>
+        <v>0.003033322747796774</v>
       </c>
       <c r="BH8" t="n">
-        <v>2.254495666420553e-05</v>
+        <v>0.001744386507198215</v>
       </c>
       <c r="BI8" t="n">
-        <v>2.033879354712553e-05</v>
+        <v>0.0005613346002064645</v>
       </c>
       <c r="BJ8" t="n">
-        <v>3.841381476377137e-05</v>
+        <v>0.002213435946032405</v>
       </c>
       <c r="BK8" t="n">
-        <v>4.823888502869522e-06</v>
+        <v>0.0001408814860042185</v>
       </c>
       <c r="BL8" t="n">
-        <v>2.159127689083107e-05</v>
+        <v>0.0001749158691382036</v>
       </c>
       <c r="BM8" t="n">
-        <v>2.2596705093747e-06</v>
+        <v>0.001354206469841301</v>
       </c>
       <c r="BN8" t="n">
-        <v>3.680866484501166e-06</v>
+        <v>0.001118878717534244</v>
       </c>
       <c r="BO8" t="n">
-        <v>2.946315362351015e-06</v>
+        <v>0.001356750261038542</v>
       </c>
       <c r="BP8" t="n">
-        <v>1.046103716362268e-05</v>
+        <v>0.0002112819347530603</v>
       </c>
       <c r="BQ8" t="n">
-        <v>6.304955604718998e-06</v>
+        <v>2.460987616359489e-06</v>
       </c>
       <c r="BR8" t="n">
-        <v>2.771661002043402e-06</v>
+        <v>0.001270821550861001</v>
       </c>
       <c r="BS8" t="n">
-        <v>7.101056780811632e-06</v>
+        <v>0.0003451304219197482</v>
       </c>
       <c r="BT8" t="n">
-        <v>1.860254201346834e-06</v>
+        <v>8.16075480543077e-05</v>
       </c>
       <c r="BU8" t="n">
-        <v>5.325609163264744e-05</v>
+        <v>0.0005296766757965088</v>
       </c>
       <c r="BV8" t="n">
-        <v>2.384251274634153e-06</v>
+        <v>0.002948238048702478</v>
       </c>
       <c r="BW8" t="n">
-        <v>5.460577540361555e-06</v>
+        <v>0.001351975370198488</v>
       </c>
       <c r="BX8" t="n">
-        <v>3.615954119595699e-05</v>
+        <v>0.0009931614622473717</v>
       </c>
       <c r="BY8" t="n">
-        <v>7.031626410025638e-06</v>
+        <v>0.0009247419657185674</v>
       </c>
       <c r="BZ8" t="n">
-        <v>1.726091625187109e-08</v>
+        <v>0.001061547663994133</v>
       </c>
       <c r="CA8" t="n">
-        <v>2.229746769444318e-06</v>
+        <v>0.00106929789762944</v>
       </c>
       <c r="CB8" t="n">
-        <v>6.424720027098374e-07</v>
+        <v>0.001039638766087592</v>
       </c>
       <c r="CC8" t="n">
-        <v>9.559191312291659e-06</v>
+        <v>0.001420876244083047</v>
       </c>
       <c r="CD8" t="n">
-        <v>2.279904038005043e-05</v>
+        <v>5.417517968453467e-05</v>
       </c>
       <c r="CE8" t="n">
-        <v>1.594589230080601e-05</v>
+        <v>0.001484757172875106</v>
       </c>
       <c r="CF8" t="n">
-        <v>1.326033384430048e-06</v>
+        <v>0.001196930534206331</v>
       </c>
       <c r="CG8" t="n">
-        <v>1.397922187607037e-05</v>
+        <v>0.001034465152770281</v>
       </c>
       <c r="CH8" t="n">
-        <v>8.744268598093186e-06</v>
+        <v>0.0005683451890945435</v>
       </c>
       <c r="CI8" t="n">
-        <v>2.686965672182851e-06</v>
+        <v>0.001085333991795778</v>
       </c>
       <c r="CJ8" t="n">
-        <v>2.295250624229084e-06</v>
+        <v>0.0004863609792664647</v>
       </c>
       <c r="CK8" t="n">
-        <v>6.9982884269848e-06</v>
+        <v>0.000307781680021435</v>
       </c>
       <c r="CL8" t="n">
-        <v>1.301318434343557e-06</v>
+        <v>0.000806154333986342</v>
       </c>
       <c r="CM8" t="n">
-        <v>9.0962385002058e-06</v>
+        <v>0.001182898413389921</v>
       </c>
       <c r="CN8" t="n">
-        <v>5.79104835196631e-06</v>
+        <v>0.0002362184168305248</v>
       </c>
       <c r="CO8" t="n">
-        <v>7.221113264677115e-06</v>
+        <v>0.0005335420137271285</v>
       </c>
       <c r="CP8" t="n">
-        <v>8.535885172022972e-07</v>
+        <v>0.001063372590579093</v>
       </c>
       <c r="CQ8" t="n">
-        <v>1.467745732952608e-05</v>
+        <v>0.0001607542508281767</v>
       </c>
       <c r="CR8" t="n">
-        <v>3.313475644972641e-06</v>
+        <v>4.450956475920975e-05</v>
       </c>
       <c r="CS8" t="n">
-        <v>1.059949227055768e-05</v>
+        <v>0.001053513609804213</v>
       </c>
       <c r="CT8" t="n">
-        <v>1.538577271276154e-05</v>
+        <v>0.0008436100906692445</v>
       </c>
       <c r="CU8" t="n">
-        <v>3.888727405865211e-06</v>
+        <v>0.0001196258308482356</v>
       </c>
       <c r="CV8" t="n">
-        <v>2.043463973677717e-05</v>
+        <v>8.376588812097907e-05</v>
       </c>
       <c r="CW8" t="n">
-        <v>1.6027455785661e-05</v>
+        <v>0.00133028719574213</v>
       </c>
       <c r="CX8" t="n">
-        <v>4.448954314284492e-06</v>
+        <v>0.001154587371274829</v>
       </c>
       <c r="CY8" t="n">
-        <v>7.264660780492704e-06</v>
+        <v>0.001407565549015999</v>
       </c>
       <c r="CZ8" t="n">
-        <v>1.019093815557426e-06</v>
+        <v>0.0004834797000512481</v>
       </c>
       <c r="DA8" t="n">
-        <v>1.878537545962899e-06</v>
+        <v>0.001205941080115736</v>
       </c>
       <c r="DB8" t="n">
-        <v>4.387530225358205e-06</v>
+        <v>0.0005126980831846595</v>
       </c>
       <c r="DC8" t="n">
-        <v>5.794196113129146e-06</v>
+        <v>0.0008534106891602278</v>
       </c>
       <c r="DD8" t="n">
-        <v>2.161300471925642e-06</v>
+        <v>0.0005502025596797466</v>
       </c>
       <c r="DE8" t="n">
-        <v>1.149798663391266e-05</v>
+        <v>0.0002651555696502328</v>
       </c>
       <c r="DF8" t="n">
-        <v>4.049045310239308e-05</v>
+        <v>0.001702738110907376</v>
       </c>
       <c r="DG8" t="n">
-        <v>7.353135515586473e-06</v>
+        <v>0.0003206850087735802</v>
       </c>
       <c r="DH8" t="n">
-        <v>1.439158768334892e-05</v>
+        <v>0.003400480840355158</v>
       </c>
       <c r="DI8" t="n">
-        <v>5.492947821039706e-05</v>
+        <v>0.0005878570955246687</v>
       </c>
       <c r="DJ8" t="n">
-        <v>3.131232369923964e-05</v>
+        <v>0.0003695205668918788</v>
       </c>
       <c r="DK8" t="n">
-        <v>7.462563189619686e-07</v>
+        <v>0.001380050438456237</v>
       </c>
       <c r="DL8" t="n">
-        <v>5.512760708370479e-06</v>
+        <v>0.00136731646489352</v>
       </c>
       <c r="DM8" t="n">
-        <v>4.438071300683077e-06</v>
+        <v>0.0004622193810064346</v>
       </c>
       <c r="DN8" t="n">
-        <v>4.133089078095509e-06</v>
+        <v>4.757315036840737e-05</v>
       </c>
       <c r="DO8" t="n">
-        <v>1.78950449480908e-05</v>
+        <v>0.0002973260707221925</v>
       </c>
       <c r="DP8" t="n">
-        <v>4.794834694621386e-06</v>
+        <v>0.0007468027761206031</v>
       </c>
       <c r="DQ8" t="n">
-        <v>2.970225523313275e-06</v>
+        <v>0.0009911564411595464</v>
       </c>
       <c r="DR8" t="n">
-        <v>1.638910725887399e-05</v>
+        <v>0.0003645549004431814</v>
       </c>
       <c r="DS8" t="n">
-        <v>1.280625747313024e-05</v>
+        <v>9.02258325368166e-05</v>
       </c>
       <c r="DT8" t="n">
-        <v>1.454139510315144e-05</v>
+        <v>0.0003611148276831955</v>
       </c>
       <c r="DU8" t="n">
-        <v>2.482560603311867e-06</v>
+        <v>7.112095772754401e-05</v>
       </c>
       <c r="DV8" t="n">
-        <v>3.185142759321025e-06</v>
+        <v>0.001313210930675268</v>
       </c>
       <c r="DW8" t="n">
-        <v>4.572741090669297e-06</v>
+        <v>0.0002821136731654406</v>
       </c>
       <c r="DX8" t="n">
-        <v>8.191367669496685e-06</v>
+        <v>0.0006642062216997147</v>
       </c>
       <c r="DY8" t="n">
-        <v>5.109787707624491e-06</v>
+        <v>0.001463126856833696</v>
       </c>
       <c r="DZ8" t="n">
-        <v>5.791732746729394e-06</v>
+        <v>1.158792292699218e-05</v>
       </c>
       <c r="EA8" t="n">
-        <v>2.199350274167955e-05</v>
+        <v>0.0004239778500050306</v>
       </c>
       <c r="EB8" t="n">
-        <v>6.800437404308468e-06</v>
+        <v>0.0006408412009477615</v>
       </c>
       <c r="EC8" t="n">
-        <v>5.23837843502406e-06</v>
+        <v>9.867787593975663e-05</v>
       </c>
       <c r="ED8" t="n">
-        <v>3.12188331008656e-06</v>
+        <v>0.0005821405211463571</v>
       </c>
       <c r="EE8" t="n">
-        <v>1.459382247048779e-06</v>
+        <v>2.423617115709931e-05</v>
       </c>
       <c r="EF8" t="n">
-        <v>3.139700129395351e-05</v>
+        <v>0.0006291650934144855</v>
       </c>
       <c r="EG8" t="n">
-        <v>2.228343146271072e-05</v>
+        <v>0.0008893332560546696</v>
       </c>
       <c r="EH8" t="n">
-        <v>4.172807166469283e-06</v>
+        <v>0.0008634116966277361</v>
       </c>
       <c r="EI8" t="n">
-        <v>1.492618957854575e-05</v>
+        <v>0.0001949444995261729</v>
       </c>
       <c r="EJ8" t="n">
-        <v>1.415830411133356e-05</v>
+        <v>0.0001740383449941874</v>
       </c>
       <c r="EK8" t="n">
-        <v>5.096067980048247e-06</v>
+        <v>0.0009178371401503682</v>
       </c>
       <c r="EL8" t="n">
-        <v>3.15607940137852e-06</v>
+        <v>0.001001082826405764</v>
       </c>
       <c r="EM8" t="n">
-        <v>7.00497776051634e-06</v>
+        <v>2.851047429430764e-05</v>
       </c>
       <c r="EN8" t="n">
-        <v>2.541089088481385e-06</v>
+        <v>0.0002067209861706942</v>
       </c>
       <c r="EO8" t="n">
-        <v>2.375074927840615e-07</v>
+        <v>0.000249291566433385</v>
       </c>
       <c r="EP8" t="n">
-        <v>3.239318903069943e-05</v>
+        <v>0.0005447711446322501</v>
       </c>
       <c r="EQ8" t="n">
-        <v>1.031453575706109e-05</v>
+        <v>0.001282288925722241</v>
       </c>
       <c r="ER8" t="n">
-        <v>1.904629243654199e-05</v>
+        <v>0.000841283006593585</v>
       </c>
       <c r="ES8" t="n">
-        <v>1.642873939999845e-05</v>
+        <v>0.0008684010826982558</v>
       </c>
       <c r="ET8" t="n">
-        <v>3.776306130021112e-07</v>
+        <v>0.001123258261941373</v>
       </c>
       <c r="EU8" t="n">
-        <v>1.200317092298064e-05</v>
+        <v>0.0009973994456231594</v>
       </c>
       <c r="EV8" t="n">
-        <v>6.075792498450028e-06</v>
+        <v>0.001270915963687003</v>
       </c>
       <c r="EW8" t="n">
-        <v>2.036636942648329e-06</v>
+        <v>3.023110912181437e-05</v>
       </c>
       <c r="EX8" t="n">
-        <v>2.424069862172473e-05</v>
+        <v>0.0001355163258267567</v>
       </c>
       <c r="EY8" t="n">
-        <v>1.159387738880469e-05</v>
+        <v>0.001252553891390562</v>
       </c>
       <c r="EZ8" t="n">
-        <v>5.148080617800588e-06</v>
+        <v>0.0009199795313179493</v>
       </c>
       <c r="FA8" t="n">
-        <v>9.260343176720198e-06</v>
+        <v>0.001188001362606883</v>
       </c>
       <c r="FB8" t="n">
-        <v>5.670507562172133e-06</v>
+        <v>0.000616159406490624</v>
       </c>
       <c r="FC8" t="n">
-        <v>1.619282329556881e-06</v>
+        <v>0.0009683109819889069</v>
       </c>
       <c r="FD8" t="n">
-        <v>7.620168958055729e-07</v>
+        <v>0.0008529496844857931</v>
       </c>
       <c r="FE8" t="n">
-        <v>8.239937415055465e-06</v>
+        <v>0.0004371277755126357</v>
       </c>
       <c r="FF8" t="n">
-        <v>7.326300419663312e-07</v>
+        <v>0.0009043082827702165</v>
       </c>
       <c r="FG8" t="n">
-        <v>2.940506055892911e-05</v>
+        <v>0.0001072801533155143</v>
       </c>
       <c r="FH8" t="n">
-        <v>2.09034751605941e-05</v>
+        <v>0.0007055046153254807</v>
       </c>
       <c r="FI8" t="n">
-        <v>4.004610673291609e-06</v>
+        <v>0.001175178098492324</v>
       </c>
       <c r="FJ8" t="n">
-        <v>2.708489773795009e-05</v>
+        <v>0.001373256789520383</v>
       </c>
       <c r="FK8" t="n">
-        <v>1.3684115401702e-05</v>
+        <v>0.0004487349942792207</v>
       </c>
       <c r="FL8" t="n">
-        <v>6.314923666650429e-06</v>
+        <v>0.0008127663750201464</v>
       </c>
       <c r="FM8" t="n">
-        <v>1.04616119642742e-05</v>
+        <v>0.0006275863852351904</v>
       </c>
       <c r="FN8" t="n">
-        <v>1.618630267330445e-05</v>
+        <v>0.0002970568893942982</v>
       </c>
       <c r="FO8" t="n">
-        <v>5.813716143165948e-06</v>
+        <v>0.0006494678091257811</v>
       </c>
       <c r="FP8" t="n">
-        <v>2.444691926939413e-05</v>
+        <v>0.0004037085745949298</v>
       </c>
       <c r="FQ8" t="n">
-        <v>2.012347067648079e-05</v>
+        <v>0.001467059017159045</v>
       </c>
       <c r="FR8" t="n">
-        <v>6.328087692963891e-06</v>
+        <v>0.0007900165510363877</v>
       </c>
       <c r="FS8" t="n">
-        <v>3.371636557858437e-05</v>
+        <v>0.001788132591173053</v>
       </c>
       <c r="FT8" t="n">
-        <v>1.774906195350923e-06</v>
+        <v>0.001916108070872724</v>
       </c>
       <c r="FU8" t="n">
-        <v>1.130018063122407e-05</v>
+        <v>0.0006005850154906511</v>
       </c>
       <c r="FV8" t="n">
-        <v>2.275763790748897e-06</v>
+        <v>0.001083732815459371</v>
       </c>
       <c r="FW8" t="n">
-        <v>2.257970845676027e-05</v>
+        <v>0.0006567080854438245</v>
       </c>
       <c r="FX8" t="n">
-        <v>5.196684014663333e-06</v>
+        <v>0.0001551886380184442</v>
       </c>
       <c r="FY8" t="n">
-        <v>1.514922223577742e-05</v>
+        <v>0.001748178037814796</v>
       </c>
       <c r="FZ8" t="n">
-        <v>7.440620720444713e-06</v>
+        <v>6.476050475612283e-05</v>
       </c>
       <c r="GA8" t="n">
-        <v>6.972435130592203e-06</v>
+        <v>0.000233703147387132</v>
       </c>
       <c r="GB8" t="n">
-        <v>1.011664835459669e-06</v>
+        <v>0.0001052865554811433</v>
       </c>
       <c r="GC8" t="n">
-        <v>9.086244062928017e-06</v>
+        <v>0.0003431887016631663</v>
       </c>
       <c r="GD8" t="n">
-        <v>3.881784493842133e-07</v>
+        <v>0.0008515632362104952</v>
       </c>
       <c r="GE8" t="n">
-        <v>6.844408289907733e-06</v>
+        <v>0.004463485907763243</v>
       </c>
       <c r="GF8" t="n">
-        <v>9.657691407483071e-06</v>
+        <v>0.0005328379338607192</v>
       </c>
       <c r="GG8" t="n">
-        <v>6.89541320753051e-06</v>
+        <v>0.0006941123865544796</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.646998837008141e-06</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>1.467782203690149e-05</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2.252651938761119e-06</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3.346299763506977e-06</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>5.990742465655785e-06</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3.537891643645708e-06</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>5.697318670172535e-07</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.046736429088924e-06</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.022362638053892e-07</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.049942733923672e-07</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1.342427822237369e-05</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>6.089184694246796e-07</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>2.279037062180578e-06</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3.790095433942042e-06</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>7.634699841219117e-07</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.801240839289676e-07</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.294516778216348e-06</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>2.386688038313878e-07</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>9.448356195207452e-07</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.232403292306117e-06</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>9.588782177161193e-07</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1.137860181188444e-06</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>2.963202859973535e-06</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>8.707642678018601e-07</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.721864286238997e-07</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.225788537340122e-07</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>9.254442261408258e-07</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.075938371286611e-06</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.828814558597514e-06</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.937640945470775e-07</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>9.280952326662373e-07</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.430699285265291e-06</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>3.481148667106027e-07</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>5.644898237733287e-08</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>4.849202923651319e-07</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.148162482422777e-06</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.565770730849181e-06</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.197524503979366e-06</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>5.884571692149621e-07</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.863445042246894e-07</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.100443114410155e-06</v>
+        <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>9.599233408152941e-07</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.345925284113036e-06</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.816399273797288e-07</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.35413892823999e-07</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.286753442604095e-06</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.966378689161502e-06</v>
+        <v>0</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.073925659511588e-07</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>2.346436076550162e-07</v>
+        <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.310422248934628e-06</v>
+        <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>3.253625209254096e-06</v>
+        <v>0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>3.233839834138053e-06</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>3.910866780643119e-06</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>1.772069481376093e-06</v>
+        <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>2.080095782730496e-06</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>2.145941380149452e-06</v>
+        <v>0</v>
       </c>
       <c r="BE9" t="n">
-        <v>8.234627557612839e-08</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>2.527323886170052e-06</v>
+        <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.461718284190283e-07</v>
+        <v>0</v>
       </c>
       <c r="BH9" t="n">
-        <v>1.61899197337334e-06</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>1.289956685468496e-06</v>
+        <v>0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1.936802163982065e-06</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>9.779149650057661e-07</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>1.077275896932406e-06</v>
+        <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>3.765132419175643e-07</v>
+        <v>0</v>
       </c>
       <c r="BN9" t="n">
-        <v>1.829561483646103e-06</v>
+        <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>8.203288643926498e-07</v>
+        <v>0</v>
       </c>
       <c r="BP9" t="n">
-        <v>2.840312617991003e-06</v>
+        <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>3.42058478963736e-06</v>
+        <v>0</v>
       </c>
       <c r="BR9" t="n">
-        <v>2.110411742251017e-06</v>
+        <v>0</v>
       </c>
       <c r="BS9" t="n">
-        <v>2.139616270824263e-07</v>
+        <v>0</v>
       </c>
       <c r="BT9" t="n">
-        <v>2.025120835469352e-07</v>
+        <v>0</v>
       </c>
       <c r="BU9" t="n">
-        <v>1.68259248312097e-06</v>
+        <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>4.526536940829828e-06</v>
+        <v>0</v>
       </c>
       <c r="BW9" t="n">
-        <v>1.08743142845924e-06</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>6.846245241831639e-07</v>
+        <v>0</v>
       </c>
       <c r="BY9" t="n">
-        <v>2.140179731213721e-06</v>
+        <v>0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>2.576468205006677e-06</v>
+        <v>0</v>
       </c>
       <c r="CA9" t="n">
-        <v>2.628055653985939e-06</v>
+        <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>3.026933086403005e-07</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
-        <v>6.528247809001186e-07</v>
+        <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>5.884861593585811e-07</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>3.302130835436401e-06</v>
+        <v>0</v>
       </c>
       <c r="CF9" t="n">
-        <v>1.314846940658754e-06</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>2.406370356311527e-07</v>
+        <v>0</v>
       </c>
       <c r="CH9" t="n">
-        <v>1.414895905327285e-06</v>
+        <v>0</v>
       </c>
       <c r="CI9" t="n">
-        <v>1.265688865714765e-06</v>
+        <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>1.282626840293233e-06</v>
+        <v>0</v>
       </c>
       <c r="CK9" t="n">
-        <v>1.606119042207865e-07</v>
+        <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>1.083194263173937e-07</v>
+        <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>3.928495857508096e-07</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>2.934224880846159e-07</v>
+        <v>0</v>
       </c>
       <c r="CO9" t="n">
-        <v>1.424168090125022e-06</v>
+        <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>1.414581561220984e-06</v>
+        <v>0</v>
       </c>
       <c r="CQ9" t="n">
-        <v>3.19817036142922e-06</v>
+        <v>0</v>
       </c>
       <c r="CR9" t="n">
-        <v>1.335345359620987e-06</v>
+        <v>0</v>
       </c>
       <c r="CS9" t="n">
-        <v>1.224453285431082e-06</v>
+        <v>0</v>
       </c>
       <c r="CT9" t="n">
-        <v>2.293459715474455e-07</v>
+        <v>0</v>
       </c>
       <c r="CU9" t="n">
-        <v>1.413246621950748e-07</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>4.194574785287841e-07</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>3.118228960374836e-06</v>
+        <v>0</v>
       </c>
       <c r="CX9" t="n">
-        <v>1.680671516623988e-06</v>
+        <v>0</v>
       </c>
       <c r="CY9" t="n">
-        <v>8.031826155274757e-07</v>
+        <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>1.277735577787098e-06</v>
+        <v>0</v>
       </c>
       <c r="DA9" t="n">
-        <v>9.269558063351724e-07</v>
+        <v>0</v>
       </c>
       <c r="DB9" t="n">
-        <v>1.11057761387201e-06</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>3.807775073028097e-08</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
-        <v>6.894815385294351e-08</v>
+        <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>3.416769686737098e-06</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>1.647498493184685e-06</v>
+        <v>0</v>
       </c>
       <c r="DG9" t="n">
-        <v>3.64963261745288e-06</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>9.743378086568555e-07</v>
+        <v>0</v>
       </c>
       <c r="DI9" t="n">
-        <v>4.882615030510351e-06</v>
+        <v>0</v>
       </c>
       <c r="DJ9" t="n">
-        <v>1.88038825399417e-06</v>
+        <v>0</v>
       </c>
       <c r="DK9" t="n">
-        <v>1.805128931664512e-06</v>
+        <v>0</v>
       </c>
       <c r="DL9" t="n">
-        <v>8.230596222347231e-07</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
-        <v>1.940969241331914e-06</v>
+        <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>1.713547561621453e-07</v>
+        <v>0</v>
       </c>
       <c r="DO9" t="n">
-        <v>1.323267497355118e-06</v>
+        <v>0</v>
       </c>
       <c r="DP9" t="n">
-        <v>3.014253707078751e-06</v>
+        <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>1.289450324293284e-07</v>
+        <v>0</v>
       </c>
       <c r="DR9" t="n">
-        <v>1.517501232228824e-06</v>
+        <v>0</v>
       </c>
       <c r="DS9" t="n">
-        <v>8.23371237856918e-07</v>
+        <v>0</v>
       </c>
       <c r="DT9" t="n">
-        <v>4.665196229325375e-08</v>
+        <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>6.547495559061645e-07</v>
+        <v>0</v>
       </c>
       <c r="DV9" t="n">
-        <v>6.528418907691957e-07</v>
+        <v>0</v>
       </c>
       <c r="DW9" t="n">
-        <v>1.344991687801667e-06</v>
+        <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>1.507076490270265e-06</v>
+        <v>0</v>
       </c>
       <c r="DY9" t="n">
-        <v>2.982109208460315e-07</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>2.849668874205236e-07</v>
+        <v>0</v>
       </c>
       <c r="EA9" t="n">
-        <v>3.647955963970162e-07</v>
+        <v>0</v>
       </c>
       <c r="EB9" t="n">
-        <v>1.061345145103587e-07</v>
+        <v>0</v>
       </c>
       <c r="EC9" t="n">
-        <v>5.576286525865726e-07</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
-        <v>1.342011046290281e-06</v>
+        <v>0</v>
       </c>
       <c r="EE9" t="n">
-        <v>5.548321837522963e-07</v>
+        <v>0</v>
       </c>
       <c r="EF9" t="n">
-        <v>5.655775794366491e-07</v>
+        <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>3.41193344866042e-06</v>
+        <v>0</v>
       </c>
       <c r="EH9" t="n">
-        <v>3.149170879623853e-06</v>
+        <v>0</v>
       </c>
       <c r="EI9" t="n">
-        <v>2.450236706863507e-06</v>
+        <v>0</v>
       </c>
       <c r="EJ9" t="n">
-        <v>2.859302639990347e-06</v>
+        <v>0</v>
       </c>
       <c r="EK9" t="n">
-        <v>1.702782583379303e-06</v>
+        <v>0</v>
       </c>
       <c r="EL9" t="n">
-        <v>1.294454591516114e-06</v>
+        <v>0</v>
       </c>
       <c r="EM9" t="n">
-        <v>9.147391892838641e-07</v>
+        <v>0</v>
       </c>
       <c r="EN9" t="n">
-        <v>1.508636614744319e-06</v>
+        <v>0</v>
       </c>
       <c r="EO9" t="n">
-        <v>9.08678430278087e-07</v>
+        <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>1.030716816785571e-06</v>
+        <v>0</v>
       </c>
       <c r="EQ9" t="n">
-        <v>1.342141786153661e-06</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>6.105927923272247e-07</v>
+        <v>0</v>
       </c>
       <c r="ES9" t="n">
-        <v>9.915723921949393e-07</v>
+        <v>0</v>
       </c>
       <c r="ET9" t="n">
-        <v>6.60456862533465e-08</v>
+        <v>0</v>
       </c>
       <c r="EU9" t="n">
-        <v>1.200641918330803e-06</v>
+        <v>0</v>
       </c>
       <c r="EV9" t="n">
-        <v>1.414935127286299e-06</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>1.065215315065871e-06</v>
+        <v>0</v>
       </c>
       <c r="EX9" t="n">
-        <v>7.45313627703581e-07</v>
+        <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>3.009738065884449e-06</v>
+        <v>0</v>
       </c>
       <c r="EZ9" t="n">
-        <v>1.265215132661979e-06</v>
+        <v>0</v>
       </c>
       <c r="FA9" t="n">
-        <v>6.119768158896477e-07</v>
+        <v>0</v>
       </c>
       <c r="FB9" t="n">
-        <v>1.49458378473355e-06</v>
+        <v>0</v>
       </c>
       <c r="FC9" t="n">
-        <v>1.068577830665163e-06</v>
+        <v>0</v>
       </c>
       <c r="FD9" t="n">
-        <v>1.222881337525905e-06</v>
+        <v>0</v>
       </c>
       <c r="FE9" t="n">
-        <v>3.981530198871042e-07</v>
+        <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>3.766665770399413e-07</v>
+        <v>0</v>
       </c>
       <c r="FG9" t="n">
-        <v>2.404727297289355e-07</v>
+        <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>1.819327280827565e-06</v>
+        <v>0</v>
       </c>
       <c r="FI9" t="n">
-        <v>1.487840222580417e-06</v>
+        <v>0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>4.306790302166519e-08</v>
+        <v>0</v>
       </c>
       <c r="FK9" t="n">
-        <v>3.537235784278892e-07</v>
+        <v>0</v>
       </c>
       <c r="FL9" t="n">
-        <v>8.76350554790406e-07</v>
+        <v>0</v>
       </c>
       <c r="FM9" t="n">
-        <v>8.955573775892844e-07</v>
+        <v>0</v>
       </c>
       <c r="FN9" t="n">
-        <v>9.615830549591919e-07</v>
+        <v>0</v>
       </c>
       <c r="FO9" t="n">
-        <v>2.865448550437577e-06</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>9.363178605781286e-07</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>1.233956595569907e-06</v>
+        <v>0</v>
       </c>
       <c r="FR9" t="n">
-        <v>2.011020569625543e-06</v>
+        <v>0</v>
       </c>
       <c r="FS9" t="n">
-        <v>2.610694309623796e-07</v>
+        <v>0</v>
       </c>
       <c r="FT9" t="n">
-        <v>5.927678898842714e-07</v>
+        <v>0</v>
       </c>
       <c r="FU9" t="n">
-        <v>3.454731086094398e-06</v>
+        <v>0</v>
       </c>
       <c r="FV9" t="n">
-        <v>1.910746050270973e-07</v>
+        <v>0</v>
       </c>
       <c r="FW9" t="n">
-        <v>2.27221391924104e-07</v>
+        <v>0</v>
       </c>
       <c r="FX9" t="n">
-        <v>3.270606043770385e-07</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>2.193842192355078e-06</v>
+        <v>0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>1.314081146119861e-07</v>
+        <v>0</v>
       </c>
       <c r="GA9" t="n">
-        <v>1.698507730907295e-06</v>
+        <v>0</v>
       </c>
       <c r="GB9" t="n">
-        <v>2.723585566855036e-06</v>
+        <v>0</v>
       </c>
       <c r="GC9" t="n">
-        <v>1.394857235936797e-06</v>
+        <v>0</v>
       </c>
       <c r="GD9" t="n">
-        <v>2.535066698783339e-07</v>
+        <v>0</v>
       </c>
       <c r="GE9" t="n">
-        <v>2.575859525677515e-06</v>
+        <v>0</v>
       </c>
       <c r="GF9" t="n">
-        <v>1.03537530549147e-07</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>1.176927298729424e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.002728344174101949</v>
+        <v>0.4998252987861633</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02191008254885674</v>
+        <v>1.923424959182739</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001053311978466809</v>
+        <v>0.2176386266946793</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003753575962036848</v>
+        <v>0.1777415126562119</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01280345115810633</v>
+        <v>0.2243903577327728</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03210309147834778</v>
+        <v>0.2587854564189911</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002341179409995675</v>
+        <v>0.06262095272541046</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004878891631960869</v>
+        <v>0.9849560856819153</v>
       </c>
       <c r="I10" t="n">
-        <v>0.007192593533545732</v>
+        <v>0.1440526694059372</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00128141650930047</v>
+        <v>0.4420915246009827</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02071280404925346</v>
+        <v>1.5854651927948</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003784865606576204</v>
+        <v>0.08290630578994751</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001276062219403684</v>
+        <v>0.001257568597793579</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01084384601563215</v>
+        <v>0.2801760733127594</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03171947225928307</v>
+        <v>0.1984639018774033</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0007746233604848385</v>
+        <v>0.03982508182525635</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.002649443689733744</v>
+        <v>1.169104099273682</v>
       </c>
       <c r="R10" t="n">
-        <v>0.008282849565148354</v>
+        <v>0.44675013422966</v>
       </c>
       <c r="S10" t="n">
-        <v>0.002664290834218264</v>
+        <v>0.1368479132652283</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001665507443249226</v>
+        <v>0.2766191959381104</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001750023337081075</v>
+        <v>0.03254881501197815</v>
       </c>
       <c r="V10" t="n">
-        <v>0.002291679615154862</v>
+        <v>0.2555984556674957</v>
       </c>
       <c r="W10" t="n">
-        <v>0.001494167372584343</v>
+        <v>0.0448792465031147</v>
       </c>
       <c r="X10" t="n">
-        <v>0.008058734238147736</v>
+        <v>0.3226050436496735</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.002469802973791957</v>
+        <v>0.1233664900064468</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.005619506351649761</v>
+        <v>0.2981707453727722</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.001187277492135763</v>
+        <v>0.07318118959665298</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.005236802622675896</v>
+        <v>0.05593742430210114</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.003794560907408595</v>
+        <v>0.290365070104599</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.002519030822440982</v>
+        <v>0.1115806400775909</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0002970367786474526</v>
+        <v>0.005700097419321537</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.007499037776142359</v>
+        <v>0.2658684551715851</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.001341378083452582</v>
+        <v>0.009065579622983932</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0006134928553365171</v>
+        <v>0.1118654310703278</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.004135437775403261</v>
+        <v>0.3345914483070374</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.0007514039170928299</v>
+        <v>0.07421949505805969</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.00109510775655508</v>
+        <v>0.4673464298248291</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.005339335184544325</v>
+        <v>0.05444292724132538</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.001213015057146549</v>
+        <v>0.0653146356344223</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.0009260901133529842</v>
+        <v>0.02971053496003151</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.0022609350271523</v>
+        <v>0.1494429111480713</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.005729145836085081</v>
+        <v>0.03432333096861839</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.001695627346634865</v>
+        <v>0.0614880695939064</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.002282748697325587</v>
+        <v>0.02303703129291534</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.002294005593284965</v>
+        <v>0.1676953285932541</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.002172127598896623</v>
+        <v>0.07201382517814636</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.01079156342893839</v>
+        <v>1.588694453239441</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.001847494510002434</v>
+        <v>0.1092673912644386</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.003566330764442682</v>
+        <v>0.1490118801593781</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.003196977078914642</v>
+        <v>0.2650790810585022</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.01718478463590145</v>
+        <v>0.05524876341223717</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.001981138484552503</v>
+        <v>0.06916917115449905</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.0013070625718683</v>
+        <v>0.1357570886611938</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.001889174222014844</v>
+        <v>0.1082384586334229</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.004719354677945375</v>
+        <v>0.1894969195127487</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.003465196583420038</v>
+        <v>0.6751415729522705</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.00163038435857743</v>
+        <v>0.4548468291759491</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.007493069861084223</v>
+        <v>0.4182444214820862</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.002202339936047792</v>
+        <v>0.3094128370285034</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.002760307397693396</v>
+        <v>0.04550963640213013</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.001259892014786601</v>
+        <v>0.2287632524967194</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.007408565375953913</v>
+        <v>0.5636746287345886</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.002231548773124814</v>
+        <v>0.05789702013134956</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.002139057265594602</v>
+        <v>0.155774861574173</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.001824586535803974</v>
+        <v>0.948845386505127</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.0016898512840271</v>
+        <v>0.1343147456645966</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.00157102441880852</v>
+        <v>0.5223429799079895</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.006597049068659544</v>
+        <v>0.8064308166503906</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.004990026354789734</v>
+        <v>0.1424164772033691</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.001760307583026588</v>
+        <v>0.2632484138011932</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.005445219110697508</v>
+        <v>0.3822627067565918</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.002494646236300468</v>
+        <v>0.09925055503845215</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.0006191781722009182</v>
+        <v>0.04764256253838539</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.006062465254217386</v>
+        <v>0.8304651379585266</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.0005503359134308994</v>
+        <v>0.2381940484046936</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.0007628885214217007</v>
+        <v>0.09477041661739349</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.002830497454851866</v>
+        <v>0.2670705318450928</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.01215662248432636</v>
+        <v>0.1494571417570114</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.0009400113485753536</v>
+        <v>0.3681254088878632</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.001092070015147328</v>
+        <v>0.09300278127193451</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.004550681449472904</v>
+        <v>0.09693095833063126</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.0015145797515288</v>
+        <v>0.01396066136658192</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.004233292769640684</v>
+        <v>0.3394770324230194</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.0005314192967489362</v>
+        <v>0.1071708425879478</v>
       </c>
       <c r="CG10" t="n">
-        <v>6.833777297288179e-05</v>
+        <v>0.03834891319274902</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.003184534842148423</v>
+        <v>0.1101890429854393</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.005840115249156952</v>
+        <v>0.154060423374176</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.0001663302246015519</v>
+        <v>0.02889610268175602</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.0004237544490024447</v>
+        <v>0.2002800405025482</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.001545901759527624</v>
+        <v>0.1089737042784691</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.0004273278173059225</v>
+        <v>0.664746880531311</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.003474858123809099</v>
+        <v>0.9224744439125061</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.001876451657153666</v>
+        <v>0.005555062554776669</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.002907963935285807</v>
+        <v>0.467170923948288</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.002916299970820546</v>
+        <v>0.7487056255340576</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.005750386510044336</v>
+        <v>0.1672195047140121</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.0006918827421031892</v>
+        <v>0.1766794621944427</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.002584583591669798</v>
+        <v>0.1031116172671318</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.001138757448643446</v>
+        <v>0.08433020114898682</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.002091102534905076</v>
+        <v>0.0135835213586688</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.004158762283623219</v>
+        <v>0.2948133647441864</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.0006102602346800268</v>
+        <v>0.1561225801706314</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.0008074015495367348</v>
+        <v>0.1446697413921356</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.003238728735595942</v>
+        <v>0.06121625751256943</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.005336822476238012</v>
+        <v>0.1829411089420319</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.0009621096542105079</v>
+        <v>0.04179009050130844</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.001307046972215176</v>
+        <v>0.09231346845626831</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.001604258781298995</v>
+        <v>0.06597789376974106</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.005975459236651659</v>
+        <v>0.5504904985427856</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.003138316562399268</v>
+        <v>0.6700021624565125</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.003461526473984122</v>
+        <v>0.003816880285739899</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.0008197249844670296</v>
+        <v>0.9861368536949158</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.004773429594933987</v>
+        <v>0.1277234256267548</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.003997111693024635</v>
+        <v>0.09246804565191269</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.007612070068717003</v>
+        <v>0.6121181845664978</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.0005809195572510362</v>
+        <v>0.1776622086763382</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.003323714947327971</v>
+        <v>0.02754290401935577</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.002161408774554729</v>
+        <v>0.2413041293621063</v>
       </c>
       <c r="DO10" t="n">
-        <v>3.476743586361408e-06</v>
+        <v>0.4498136341571808</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.002418869640678167</v>
+        <v>0.1120468974113464</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.002349888905882835</v>
+        <v>0.2440106868743896</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.000227014534175396</v>
+        <v>0.07193506509065628</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.002620690502226353</v>
+        <v>0.0524044930934906</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.001584492740221322</v>
+        <v>0.04889919236302376</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.0002748849801719189</v>
+        <v>0.2664954662322998</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.000673376489430666</v>
+        <v>0.01786016672849655</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.0001022987416945398</v>
+        <v>0.1163226664066315</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.001734303892590106</v>
+        <v>0.1134885773062706</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.002031235024333</v>
+        <v>0.142281174659729</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.001118530170060694</v>
+        <v>0.2672837376594543</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.001428888528607786</v>
+        <v>0.1444855928421021</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.0005758463521488011</v>
+        <v>0.2932483553886414</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.001162058673799038</v>
+        <v>0.2435330450534821</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.0009240793297067285</v>
+        <v>0.1588887274265289</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.001484115258790553</v>
+        <v>0.1165195405483246</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.002490365412086248</v>
+        <v>0.08709943294525146</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.006097035948187113</v>
+        <v>0.1024798005819321</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.003642486874014139</v>
+        <v>0.05763985961675644</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.0001062911178451031</v>
+        <v>0.3129061162471771</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.007993293926119804</v>
+        <v>0.01819682493805885</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.006207223981618881</v>
+        <v>0.08663307875394821</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.0001480447826907039</v>
+        <v>0.007387807592749596</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.001943581039085984</v>
+        <v>0.1886072605848312</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.002987828338518739</v>
+        <v>0.08950497955083847</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.001379522960633039</v>
+        <v>0.2197783291339874</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.0003379069676157087</v>
+        <v>0.124640665948391</v>
       </c>
       <c r="EQ10" t="n">
-        <v>3.742743137991056e-05</v>
+        <v>0.1294800788164139</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.0004178707022219896</v>
+        <v>0.04001341760158539</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.002393987961113453</v>
+        <v>0.02099731750786304</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.002678473247215152</v>
+        <v>0.1149158179759979</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.001439403160475194</v>
+        <v>0.2418533861637115</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.0008695165743120015</v>
+        <v>0.2912701666355133</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.00150408991612494</v>
+        <v>0.04533061385154724</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.00225441949442029</v>
+        <v>0.02053403481841087</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.004360061604529619</v>
+        <v>0.2744033634662628</v>
       </c>
       <c r="EZ10" t="n">
-        <v>8.861995593179017e-05</v>
+        <v>0.07955475896596909</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.0004834476567339152</v>
+        <v>0.07396455854177475</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.003427029121667147</v>
+        <v>0.05302577093243599</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.005699943751096725</v>
+        <v>0.1750225424766541</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.0004930122522637248</v>
+        <v>0.1159718334674835</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.001150743686594069</v>
+        <v>0.2297014892101288</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.001195555785670877</v>
+        <v>0.0989677757024765</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.001587331527844071</v>
+        <v>0.09121943265199661</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.003335968125611544</v>
+        <v>0.0601232722401619</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.003583843121305108</v>
+        <v>0.1130028814077377</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.001080277026630938</v>
+        <v>0.04426955431699753</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.003339389804750681</v>
+        <v>0.2257789671421051</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.007573972456157207</v>
+        <v>0.09034328907728195</v>
       </c>
       <c r="FM10" t="n">
-        <v>2.210930688306689e-05</v>
+        <v>0.1236865818500519</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.001853133435361087</v>
+        <v>0.1879333406686783</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.002948855981230736</v>
+        <v>0.07093587517738342</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.0001337102730758488</v>
+        <v>0.2537055015563965</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.004919479601085186</v>
+        <v>0.02736565843224525</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.002205876167863607</v>
+        <v>0.2400118410587311</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.01001233421266079</v>
+        <v>0.3938583731651306</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.0002833427861332893</v>
+        <v>0.08444947749376297</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.01086944248527288</v>
+        <v>0.05648843199014664</v>
       </c>
       <c r="FV10" t="n">
-        <v>1.592497574165463e-05</v>
+        <v>0.1152653470635414</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.0001654909574426711</v>
+        <v>0.05855530500411987</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.001472863601520658</v>
+        <v>0.121086522936821</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.00290180929005146</v>
+        <v>0.3005736470222473</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.001426258590072393</v>
+        <v>0.3904782235622406</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.001058979774825275</v>
+        <v>0.1263233870267868</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.001997768180444837</v>
+        <v>0.0449942946434021</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.003213119227439165</v>
+        <v>0.08069375902414322</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.002064690692350268</v>
+        <v>0.09286487847566605</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.002508248668164015</v>
+        <v>0.4772658944129944</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.004928821697831154</v>
+        <v>0.1438503861427307</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.001693611266091466</v>
+        <v>0.03161982819437981</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.002098351018503308</v>
+        <v>0.08718274533748627</v>
       </c>
       <c r="B11" t="n">
-        <v>0.004841138143092394</v>
+        <v>0.4229502975940704</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007847225293517113</v>
+        <v>0.008007068186998367</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002196376444771886</v>
+        <v>0.1576797068119049</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02305237948894501</v>
+        <v>0.2364848107099533</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04366785287857056</v>
+        <v>0.1140234023332596</v>
       </c>
       <c r="G11" t="n">
-        <v>0.000206988537684083</v>
+        <v>0.08345705270767212</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01128040067851543</v>
+        <v>0.08369220048189163</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002247770316898823</v>
+        <v>0.05331514775753021</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002607136266306043</v>
+        <v>0.0501410998404026</v>
       </c>
       <c r="K11" t="n">
-        <v>0.007408223114907742</v>
+        <v>0.3330986797809601</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008142081089317799</v>
+        <v>0.02426040358841419</v>
       </c>
       <c r="M11" t="n">
-        <v>0.007030380889773369</v>
+        <v>0.04173325002193451</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02425208501517773</v>
+        <v>0.4542860686779022</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04745057597756386</v>
+        <v>0.1546508073806763</v>
       </c>
       <c r="P11" t="n">
-        <v>0.002922447863966227</v>
+        <v>0.02573533356189728</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.008707279339432716</v>
+        <v>0.3814702033996582</v>
       </c>
       <c r="R11" t="n">
-        <v>0.00137121812440455</v>
+        <v>0.06420295685529709</v>
       </c>
       <c r="S11" t="n">
-        <v>0.007639855612069368</v>
+        <v>0.007064684294164181</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001028768718242645</v>
+        <v>0.232913613319397</v>
       </c>
       <c r="U11" t="n">
-        <v>0.005217001773416996</v>
+        <v>0.06855268776416779</v>
       </c>
       <c r="V11" t="n">
-        <v>0.005446742754429579</v>
+        <v>0.04796876758337021</v>
       </c>
       <c r="W11" t="n">
-        <v>0.007504609413444996</v>
+        <v>0.2239392399787903</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01271429285407066</v>
+        <v>0.0933506190776825</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0007932981243357062</v>
+        <v>0.03148725628852844</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01191229932010174</v>
+        <v>0.05404902994632721</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.003364062402397394</v>
+        <v>0.04884711280465126</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.001498539349995553</v>
+        <v>0.00122014619410038</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.000818234751932323</v>
+        <v>0.1495012640953064</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.003262876998633146</v>
+        <v>0.02493386901915073</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.004484635312110186</v>
+        <v>0.177610382437706</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.02335876598954201</v>
+        <v>0.06699670106172562</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.01225969847291708</v>
+        <v>0.1416183412075043</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.005033621564507484</v>
+        <v>0.1524500846862793</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.01616045832633972</v>
+        <v>0.1098671108484268</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.001837319927290082</v>
+        <v>0.02534983307123184</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.0005839843070134521</v>
+        <v>0.1393211334943771</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.00703267939388752</v>
+        <v>0.1409315764904022</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.002606099238619208</v>
+        <v>0.03505124151706696</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.00267300452105701</v>
+        <v>0.08972083032131195</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.002900655148550868</v>
+        <v>0.02270181477069855</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.00682524312287569</v>
+        <v>0.1531084179878235</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.0007846752414479852</v>
+        <v>0.132347971200943</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.0004615482757799327</v>
+        <v>0.1305807679891586</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.002166956197470427</v>
+        <v>0.04508676007390022</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.000320268445648253</v>
+        <v>0.2919116616249084</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.01121204346418381</v>
+        <v>0.5043414235115051</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.0133710578083992</v>
+        <v>0.01210800651460886</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.003144099377095699</v>
+        <v>0.2519349455833435</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.000822597648948431</v>
+        <v>0.3884045779705048</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.008572601713240147</v>
+        <v>0.04743872582912445</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.000199023837922141</v>
+        <v>0.08081428706645966</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.001137059647589922</v>
+        <v>0.197432741522789</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.003414477920159698</v>
+        <v>0.08291184902191162</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.002350184600800276</v>
+        <v>0.1054543629288673</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.005067603196948767</v>
+        <v>0.1138232052326202</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.001953806728124619</v>
+        <v>0.03597582876682281</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.005281870253384113</v>
+        <v>0.02373291552066803</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.003781046252697706</v>
+        <v>0.426533043384552</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.009681662544608116</v>
+        <v>0.04477380961179733</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.002818811219185591</v>
+        <v>0.008679389953613281</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.009494336321949959</v>
+        <v>0.2942180931568146</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.0005563463782891631</v>
+        <v>0.05406005308032036</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.002736249705776572</v>
+        <v>0.01161909569054842</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.003673985134810209</v>
+        <v>0.1687144339084625</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.005408144555985928</v>
+        <v>0.03716488555073738</v>
       </c>
       <c r="BO11" t="n">
-        <v>3.680214285850525e-05</v>
+        <v>0.3122652769088745</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.002824508352205157</v>
+        <v>0.4610851407051086</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.01077226083725691</v>
+        <v>0.09183383733034134</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.003359109163284302</v>
+        <v>0.01750965043902397</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.004304305650293827</v>
+        <v>0.2485316842794418</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.00406881608068943</v>
+        <v>0.1141746416687965</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.0007371084066107869</v>
+        <v>0.1473492980003357</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.005519689992070198</v>
+        <v>0.2551120817661285</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.005288577638566494</v>
+        <v>0.0426517054438591</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.001989425625652075</v>
+        <v>0.02864522859454155</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.008657699450850487</v>
+        <v>0.1641825884580612</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.0156930647790432</v>
+        <v>0.03439672291278839</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.0006249841535463929</v>
+        <v>0.175944596529007</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.004735237918794155</v>
+        <v>0.1315598785877228</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.005295486655086279</v>
+        <v>0.01511267852038145</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.001208405243232846</v>
+        <v>0.01343859173357487</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.002734038047492504</v>
+        <v>0.09777440875768661</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.000904595130123198</v>
+        <v>0.01428625825792551</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.0001164998393505812</v>
+        <v>0.02035474590957165</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.005190822295844555</v>
+        <v>0.002919909544289112</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.007416978478431702</v>
+        <v>0.02670093439519405</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.0005812268354929984</v>
+        <v>0.00130836246535182</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.002288161544129252</v>
+        <v>0.01929747313261032</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.001800265396013856</v>
+        <v>0.01257049944251776</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.0007402497576549649</v>
+        <v>0.2362186312675476</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.0104830376803875</v>
+        <v>0.1280432343482971</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.0003652437590062618</v>
+        <v>0.01096479874104261</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.0002357317134737968</v>
+        <v>0.04978946596384048</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.003369729267433286</v>
+        <v>0.4612294733524323</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.01302813272923231</v>
+        <v>0.02499409765005112</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.000597626727540046</v>
+        <v>0.06974133104085922</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.001452321070246398</v>
+        <v>0.02705636620521545</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.005020920652896166</v>
+        <v>0.08876857906579971</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.0001405807852279395</v>
+        <v>0.01133069675415754</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.003749342868104577</v>
+        <v>0.100461371243</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.001157017657533288</v>
+        <v>0.01573817804455757</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.0009880503639578819</v>
+        <v>0.05535317957401276</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.006831854116171598</v>
+        <v>0.01451177801936865</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.007896995171904564</v>
+        <v>0.0204915776848793</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.0006788755999878049</v>
+        <v>0.01708207279443741</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.003583524143323302</v>
+        <v>0.01804523542523384</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.002034352626651525</v>
+        <v>0.01372724957764149</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.004995498806238174</v>
+        <v>0.2636444568634033</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.006269160192459822</v>
+        <v>0.5548843741416931</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.007405341137200594</v>
+        <v>0.05796391144394875</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.0001148160081356764</v>
+        <v>0.04009392485022545</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.0121461870148778</v>
+        <v>0.02783726714551449</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.0005926107405684888</v>
+        <v>0.1294164508581161</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.004605170339345932</v>
+        <v>0.2090977728366852</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.006400411017239094</v>
+        <v>0.1363726109266281</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.0003007990308105946</v>
+        <v>0.1251311451196671</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.003292501671239734</v>
+        <v>0.1736485958099365</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.00335689983330667</v>
+        <v>0.1842095106840134</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.001356617663986981</v>
+        <v>0.06131472066044807</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.00277879904024303</v>
+        <v>0.07975310087203979</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.002764987060800195</v>
+        <v>0.05869985371828079</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.008538042195141315</v>
+        <v>0.05560792237520218</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.0003214604803360999</v>
+        <v>0.1125156432390213</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.00134327367413789</v>
+        <v>0.0927681103348732</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.001613911706954241</v>
+        <v>0.0502605214715004</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.000675701186992228</v>
+        <v>0.0749785453081131</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.0001521926606073976</v>
+        <v>0.06266747415065765</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.0013245859881863</v>
+        <v>0.1172436475753784</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.001498142024502158</v>
+        <v>0.1773560792207718</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.002160995500162244</v>
+        <v>0.06028204411268234</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.001600303221493959</v>
+        <v>0.05811221525073051</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.003036778420209885</v>
+        <v>0.05341057106852531</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.0001037731999531388</v>
+        <v>0.048536516726017</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.001211675815284252</v>
+        <v>0.05859313905239105</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.0005325422389432788</v>
+        <v>0.1014342978596687</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.001529823988676071</v>
+        <v>0.1400466859340668</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.0003973052371293306</v>
+        <v>0.02232034876942635</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.00515522388741374</v>
+        <v>0.05620431154966354</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.01353539153933525</v>
+        <v>0.01035319548100233</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.01194067019969225</v>
+        <v>0.01065284851938486</v>
       </c>
       <c r="EL11" t="n">
-        <v>8.554069790989161e-05</v>
+        <v>0.05864731967449188</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.003565101185813546</v>
+        <v>0.01741366274654865</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.005968555808067322</v>
+        <v>0.02571416273713112</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.002720936201512814</v>
+        <v>0.07098886370658875</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.003618041053414345</v>
+        <v>0.0165523886680603</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.007451208774000406</v>
+        <v>0.0150339100509882</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.000381472404114902</v>
+        <v>0.03835704177618027</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.00314883328974247</v>
+        <v>0.00883090402930975</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.009418489411473274</v>
+        <v>0.06167353689670563</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.002959828590974212</v>
+        <v>0.02393713220953941</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.005059168674051762</v>
+        <v>0.02577219530940056</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.0002830745652318001</v>
+        <v>0.04345311969518661</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.001023161574266851</v>
+        <v>0.02139867097139359</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.002823738846927881</v>
+        <v>0.07024235278367996</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.00125875836238265</v>
+        <v>0.007152218837291002</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.000986957224085927</v>
+        <v>0.03350904583930969</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.004989154171198606</v>
+        <v>0.01484758872538805</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.007997027598321438</v>
+        <v>0.0009946614736691117</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.001423290115781128</v>
+        <v>0.008685516193509102</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.003375665983185172</v>
+        <v>0.04396221414208412</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.001073339488357306</v>
+        <v>0.006565921939909458</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.002441460732370615</v>
+        <v>0.1784050166606903</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.001057106535881758</v>
+        <v>0.1003618016839027</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.005169648211449385</v>
+        <v>0.05413350462913513</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.003139562206342816</v>
+        <v>0.05827060341835022</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.001038681366480887</v>
+        <v>0.04530729725956917</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.005277521908283234</v>
+        <v>0.03833622485399246</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.004010986536741257</v>
+        <v>0.01560258120298386</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.001445511355996132</v>
+        <v>0.0905970111489296</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.0008758488111197948</v>
+        <v>0.0156182711943984</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.001932180020958185</v>
+        <v>0.1156041100621223</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.002723087323829532</v>
+        <v>0.05608278885483742</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.002851321827620268</v>
+        <v>0.07839351147413254</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.004728937521576881</v>
+        <v>0.3836862742900848</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.0002783508971333504</v>
+        <v>0.1479007005691528</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.00708101550117135</v>
+        <v>0.001280385535210371</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.002116079907864332</v>
+        <v>0.01171471551060677</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.002206897363066673</v>
+        <v>0.04082655161619186</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.005747131071984768</v>
+        <v>0.04367509484291077</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.003682433627545834</v>
+        <v>0.0231044739484787</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.001219829893670976</v>
+        <v>0.1842164099216461</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.00152969267219305</v>
+        <v>0.09419061243534088</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.002764753066003323</v>
+        <v>0.3293049931526184</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.001902240910567343</v>
+        <v>0.2919847071170807</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.001293095760047436</v>
+        <v>0.09554892778396606</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.001300795702263713</v>
+        <v>0.1639106422662735</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.008743331767618656</v>
+        <v>0.2901057600975037</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.0005394417094066739</v>
+        <v>0.003542311023920774</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0012685771798715</v>
+        <v>0.01151251699775457</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01428658049553633</v>
+        <v>0.182843878865242</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0007299387361854315</v>
+        <v>0.01300285570323467</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0002931663766503334</v>
+        <v>0.04982105642557144</v>
       </c>
       <c r="E12" t="n">
-        <v>0.009069306775927544</v>
+        <v>0.04891587793827057</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01739166863262653</v>
+        <v>0.04205528274178505</v>
       </c>
       <c r="G12" t="n">
-        <v>0.000954297895077616</v>
+        <v>0.07500438392162323</v>
       </c>
       <c r="H12" t="n">
-        <v>0.005362834315747023</v>
+        <v>0.01027992740273476</v>
       </c>
       <c r="I12" t="n">
-        <v>0.003277556737884879</v>
+        <v>0.008865335024893284</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001434188336133957</v>
+        <v>0.01842367462813854</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01349813584238291</v>
+        <v>0.1262450516223907</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002083858009427786</v>
+        <v>0.009061811491847038</v>
       </c>
       <c r="M12" t="n">
-        <v>0.00163029320538044</v>
+        <v>0.09248070418834686</v>
       </c>
       <c r="N12" t="n">
-        <v>0.008330936543643475</v>
+        <v>0.06327646225690842</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01639389246702194</v>
+        <v>0.05140372738242149</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0007597883814014494</v>
+        <v>0.0667421892285347</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.001161211752332747</v>
+        <v>0.02694720402359962</v>
       </c>
       <c r="R12" t="n">
-        <v>0.002896350342780352</v>
+        <v>0.007602690253406763</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0001060996437445283</v>
+        <v>0.02729225158691406</v>
       </c>
       <c r="T12" t="n">
-        <v>0.00115678459405899</v>
+        <v>0.04990958049893379</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0006434845854528248</v>
+        <v>0.0007059570634737611</v>
       </c>
       <c r="V12" t="n">
-        <v>0.002239316236227751</v>
+        <v>0.001395133323967457</v>
       </c>
       <c r="W12" t="n">
-        <v>0.00151262222789228</v>
+        <v>0.04326211288571358</v>
       </c>
       <c r="X12" t="n">
-        <v>0.004699697252362967</v>
+        <v>0.03496615216135979</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.001308312406763434</v>
+        <v>0.0002066536108031869</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.003425056580454111</v>
+        <v>0.006405945867300034</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.0009396024979650974</v>
+        <v>0.01389175560325384</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.001607626443728805</v>
+        <v>0.01801081746816635</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.001434202189557254</v>
+        <v>0.04240187630057335</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.001216824166476727</v>
+        <v>0.0001467897091060877</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.0005923156277276576</v>
+        <v>0.003247216809540987</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.006674253381788731</v>
+        <v>0.00245667016133666</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.0004077947814948857</v>
+        <v>0.01167356967926025</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.0004995298804715276</v>
+        <v>0.0007841926999390125</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.002244345145300031</v>
+        <v>0.006092903204262257</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.0003829891793429852</v>
+        <v>0.01326570939272642</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.0010604189010337</v>
+        <v>0.01914049498736858</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.002580184489488602</v>
+        <v>0.02182694338262081</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.0007434817962348461</v>
+        <v>0.001671913778409362</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.333306035026908e-05</v>
+        <v>0.01900767721235752</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.001242583733983338</v>
+        <v>0.01251301076263189</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.002245416166260839</v>
+        <v>0.008456332609057426</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.0006808253237977624</v>
+        <v>0.01308383792638779</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.0007823328487575054</v>
+        <v>0.002919259946793318</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.001487078610807657</v>
+        <v>0.00839031208306551</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.003074327716603875</v>
+        <v>0.0532643049955368</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.006804308854043484</v>
+        <v>0.164337232708931</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.002289896830916405</v>
+        <v>0.00225400528870523</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.003782998770475388</v>
+        <v>0.04455635696649551</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.001564004574902356</v>
+        <v>0.006204023957252502</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.009554294869303703</v>
+        <v>0.02245635539293289</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.0002867061703000218</v>
+        <v>0.01970934495329857</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.0006088641821406782</v>
+        <v>0.02118249610066414</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.0004452996363397688</v>
+        <v>0.01111755333840847</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.003058782778680325</v>
+        <v>0.01218937896192074</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.001602103002369404</v>
+        <v>0.03364145383238792</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.001171956653706729</v>
+        <v>0.05160082876682281</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.005193630699068308</v>
+        <v>0.04987596720457077</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.001008384278975427</v>
+        <v>0.04837446659803391</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.001412496902048588</v>
+        <v>0.0242401547729969</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.0009669809369370341</v>
+        <v>0.03591326251626015</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.004059460014104843</v>
+        <v>0.03820523619651794</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.001864070305600762</v>
+        <v>0.008311700075864792</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.001683653914369643</v>
+        <v>0.007115978747606277</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.002240876201540232</v>
+        <v>0.05350257456302643</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.00169004057534039</v>
+        <v>0.030536949634552</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.001885687466710806</v>
+        <v>0.01631874404847622</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.002618094673380256</v>
+        <v>0.07481617480516434</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.002266729949042201</v>
+        <v>0.02146260440349579</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.0006116547738201916</v>
+        <v>0.01375014614313841</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.002939284313470125</v>
+        <v>0.01683715544641018</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.002030163770541549</v>
+        <v>0.007780516520142555</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.0008756246534176171</v>
+        <v>0.02374518476426601</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.003976203501224518</v>
+        <v>0.07433941215276718</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.0007412676932290196</v>
+        <v>0.02721691131591797</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.0008076753583736718</v>
+        <v>0.02148628234863281</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.003127935342490673</v>
+        <v>0.000616749282926321</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.006042171735316515</v>
+        <v>0.0224734079092741</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.001193296979181468</v>
+        <v>0.008797557093203068</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.001681936206296086</v>
+        <v>0.0236943457275629</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.00322720711119473</v>
+        <v>0.01240174099802971</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.0007858817698433995</v>
+        <v>0.006138302385807037</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.002555134473368526</v>
+        <v>0.03734462708234787</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.0003755147336050868</v>
+        <v>0.01602564565837383</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.0001362795301247388</v>
+        <v>0.02047174423933029</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.001929651247337461</v>
+        <v>0.003118960419669747</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.003026373218744993</v>
+        <v>0.009752776473760605</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.0006401007412932813</v>
+        <v>0.01482559181749821</v>
       </c>
       <c r="CK12" t="n">
-        <v>2.08626443054527e-05</v>
+        <v>0.004124489612877369</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.0006624975940212607</v>
+        <v>0.01015758886933327</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.00111455237492919</v>
+        <v>0.04432275891304016</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.002805413212627172</v>
+        <v>0.05903714895248413</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.002151972381398082</v>
+        <v>0.00621985225006938</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.003197715384885669</v>
+        <v>0.0002233628183603287</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.002964372280985117</v>
+        <v>0.0361078754067421</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.003641188610345125</v>
+        <v>0.02096855826675892</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.002361608669161797</v>
+        <v>0.000352892093360424</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.0009059858857654035</v>
+        <v>0.01099222805351019</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.001230424852110445</v>
+        <v>0.007741023786365986</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.001000255579128861</v>
+        <v>0.008853035978972912</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.002877710619941354</v>
+        <v>0.02955111861228943</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.0005461356486193836</v>
+        <v>0.02261408232152462</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.0001688579213805497</v>
+        <v>0.03009816631674767</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.002018382539972663</v>
+        <v>0.001571446307934821</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.002831481397151947</v>
+        <v>0.004151764325797558</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.001237891265191138</v>
+        <v>0.01924166083335876</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.000546533614397049</v>
+        <v>0.002053769305348396</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.0008413937175646424</v>
+        <v>0.007138515822589397</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.001306929159909487</v>
+        <v>0.0109074953943491</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.003096739063039422</v>
+        <v>0.1124329194426537</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.003348004538565874</v>
+        <v>0.0214379895478487</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.001996474573388696</v>
+        <v>0.04770540446043015</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.004299095366150141</v>
+        <v>0.04380932077765465</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.0001482751686125994</v>
+        <v>0.0100316759198904</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.003741339081898332</v>
+        <v>0.0365857258439064</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.00212793773971498</v>
+        <v>0.01055251434445381</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.00283898739144206</v>
+        <v>0.02739844471216202</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.002675392432138324</v>
+        <v>0.004352197982370853</v>
       </c>
       <c r="DO12" t="n">
-        <v>1.314500696025789e-05</v>
+        <v>0.02229442074894905</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.001149821444414556</v>
+        <v>0.02437069453299046</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.001550260931253433</v>
+        <v>0.01346274651587009</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.0002553747617639601</v>
+        <v>0.01346653141081333</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.002106311498209834</v>
+        <v>0.003007953055202961</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.0007914185989648104</v>
+        <v>0.00873944628983736</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.0003734444326255471</v>
+        <v>0.002528009936213493</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.0005545555613934994</v>
+        <v>0.01069669425487518</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.001343859825283289</v>
+        <v>0.007051223888993263</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.0006608967087231576</v>
+        <v>0.0232523363083601</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.0005238412995822728</v>
+        <v>0.008176561444997787</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.0002803774550557137</v>
+        <v>0.02775929123163223</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.0002859538362827152</v>
+        <v>0.01716288179159164</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.00177401106338948</v>
+        <v>0.00657057948410511</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.00056075380416587</v>
+        <v>0.006841639056801796</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.000698657298926264</v>
+        <v>0.02243871428072453</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.001076372573152184</v>
+        <v>0.006937999278306961</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.0006098501035012305</v>
+        <v>0.01645047031342983</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.004031443037092686</v>
+        <v>0.006432628259062767</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.002304237801581621</v>
+        <v>0.01246527023613453</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.0002465260040480644</v>
+        <v>0.02562850527465343</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.005869794636964798</v>
+        <v>0.0009617595933377743</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.003890472464263439</v>
+        <v>0.009307783097028732</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.0001340791204711422</v>
+        <v>0.0182349868118763</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.001723483204841614</v>
+        <v>0.01523933745920658</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.001809616456739604</v>
+        <v>0.003979125060141087</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.0005760506610386074</v>
+        <v>0.02333500981330872</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.0003506613720674068</v>
+        <v>0.0120912529528141</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.0007175228092819452</v>
+        <v>0.03127643838524818</v>
       </c>
       <c r="ER12" t="n">
-        <v>5.52163110114634e-05</v>
+        <v>0.02167622372508049</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.002244338393211365</v>
+        <v>0.009919458068907261</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.002592738717794418</v>
+        <v>0.02452770993113518</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.001735607045702636</v>
+        <v>0.01770530454814434</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.0001958731445483863</v>
+        <v>0.01740151830017567</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.001106775482185185</v>
+        <v>0.005274505354464054</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.001261218450963497</v>
+        <v>0.008473388850688934</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.002798590809106827</v>
+        <v>0.02834833785891533</v>
       </c>
       <c r="EZ12" t="n">
-        <v>4.387447916087694e-05</v>
+        <v>0.01686108112335205</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.0002234686398878694</v>
+        <v>0.02208025939762592</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.001968752592802048</v>
+        <v>0.003415034152567387</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.002950402908027172</v>
+        <v>0.009677832014858723</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.0007384574855677783</v>
+        <v>0.02164895832538605</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.0004516243643593043</v>
+        <v>0.006756789982318878</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.0006972490809857845</v>
+        <v>0.01126377657055855</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.002487044548615813</v>
+        <v>0.02330981940031052</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.003037713700905442</v>
+        <v>0.01132793910801411</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.003197697689756751</v>
+        <v>0.01233889069408178</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.0008003900293260813</v>
+        <v>0.01942241378128529</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.00255049392580986</v>
+        <v>0.02283333986997604</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.003391200443729758</v>
+        <v>0.00998139102011919</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.001473011448979378</v>
+        <v>0.006204920820891857</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.0005070978659205139</v>
+        <v>0.008298092521727085</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.001172592397779226</v>
+        <v>0.003195999190211296</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.000281686574453488</v>
+        <v>0.01160953566431999</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.002909189322963357</v>
+        <v>0.02039339207112789</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.001088770804926753</v>
+        <v>0.02272485941648483</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.007798688486218452</v>
+        <v>0.02642624825239182</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.0001573103945702314</v>
+        <v>0.041158277541399</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.005167731549590826</v>
+        <v>0.0123477578163147</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.0008176268893294036</v>
+        <v>0.04257439821958542</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.0001289947977056727</v>
+        <v>0.027730917558074</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.000971156929153949</v>
+        <v>0.009275059215724468</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.001543916878290474</v>
+        <v>0.02950294502079487</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.0007332927780225873</v>
+        <v>0.02626432850956917</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.0001931094448082149</v>
+        <v>0.006773952394723892</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.000913079478777945</v>
+        <v>0.0275212824344635</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.001780941267497838</v>
+        <v>0.008827678859233856</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.0003605922684073448</v>
+        <v>0.01373769156634808</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.00110450538340956</v>
+        <v>0.04025114700198174</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.003576030256226659</v>
+        <v>0.03052072040736675</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.00161058094818145</v>
+        <v>0.01659888215363026</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.07806175202131271</v>
+        <v>0.008676064200699329</v>
       </c>
       <c r="B13" t="n">
-        <v>0.06638199090957642</v>
+        <v>0.04958638548851013</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1260818392038345</v>
+        <v>0.008834203705191612</v>
       </c>
       <c r="D13" t="n">
-        <v>0.005752526223659515</v>
+        <v>0.01301433611661196</v>
       </c>
       <c r="E13" t="n">
-        <v>0.04665222391486168</v>
+        <v>0.01054393500089645</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5051026344299316</v>
+        <v>0.006623279303312302</v>
       </c>
       <c r="G13" t="n">
-        <v>0.003902900032699108</v>
+        <v>0.003487671259790659</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5173642635345459</v>
+        <v>0.0002708961255848408</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04797594994306564</v>
+        <v>0.02329428121447563</v>
       </c>
       <c r="J13" t="n">
-        <v>0.03656953200697899</v>
+        <v>0.009547888301312923</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01433788985013962</v>
+        <v>0.03771455958485603</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1377393752336502</v>
+        <v>0.002359800739213824</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02368325367569923</v>
+        <v>0.01635487377643585</v>
       </c>
       <c r="N13" t="n">
-        <v>0.05614540353417397</v>
+        <v>0.01960704103112221</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5079102516174316</v>
+        <v>0.01220927387475967</v>
       </c>
       <c r="P13" t="n">
-        <v>0.07061014324426651</v>
+        <v>0.006894475314766169</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5166267156600952</v>
+        <v>0.008400885388255119</v>
       </c>
       <c r="R13" t="n">
-        <v>0.02436750754714012</v>
+        <v>0.01524210441857576</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1651855856180191</v>
+        <v>0.0005399186047725379</v>
       </c>
       <c r="T13" t="n">
-        <v>0.08817355334758759</v>
+        <v>0.01216866914182901</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05670889467000961</v>
+        <v>0.005326594226062298</v>
       </c>
       <c r="V13" t="n">
-        <v>0.03527191281318665</v>
+        <v>0.006427286192774773</v>
       </c>
       <c r="W13" t="n">
-        <v>0.008467745967209339</v>
+        <v>0.001721352804452181</v>
       </c>
       <c r="X13" t="n">
-        <v>0.2018777132034302</v>
+        <v>0.007816656492650509</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.04585755988955498</v>
+        <v>0.002615335397422314</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.03755463659763336</v>
+        <v>0.0003963869530707598</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.04692800343036652</v>
+        <v>0.004826529417186975</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.06020713597536087</v>
+        <v>0.005152301862835884</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.01030508428812027</v>
+        <v>0.01025805529206991</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.02067795395851135</v>
+        <v>0.003584008431062102</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.1094677075743675</v>
+        <v>0.006669943686574697</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.2894310057163239</v>
+        <v>0.0003553852438926697</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.1137782633304596</v>
+        <v>0.004499354399740696</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.1543501317501068</v>
+        <v>0.004373177886009216</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.1320247054100037</v>
+        <v>0.008273818530142307</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.01117371954023838</v>
+        <v>0.001990548567846417</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.03337260335683823</v>
+        <v>0.008657385595142841</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.05762892588973045</v>
+        <v>0.004169071093201637</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.124840185046196</v>
+        <v>0.002106253756210208</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.04275437444448471</v>
+        <v>0.0006198503542691469</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.1039056926965714</v>
+        <v>0.007054601795971394</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.01607550494372845</v>
+        <v>0.004441935569047928</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.01805143803358078</v>
+        <v>0.005416220054030418</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.02361749112606049</v>
+        <v>0.002965324558317661</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.02133301272988319</v>
+        <v>0.002599492436274886</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.04426682367920876</v>
+        <v>0.003724593669176102</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.09941564500331879</v>
+        <v>0.0408700592815876</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.00331546738743782</v>
+        <v>0.001882073003798723</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.07682372629642487</v>
+        <v>0.001090344041585922</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.04891319200396538</v>
+        <v>0.004536909516900778</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.2271033227443695</v>
+        <v>0.002264587674289942</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.07526765018701553</v>
+        <v>0.004840201232582331</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.1348351091146469</v>
+        <v>0.0009483827743679285</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.02716317214071751</v>
+        <v>0.007148376200348139</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.07086911052465439</v>
+        <v>0.0004730148939415812</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.02593965083360672</v>
+        <v>0.01375743094831705</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.1348904073238373</v>
+        <v>0.009716911241412163</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.1174762547016144</v>
+        <v>0.0004804420750588179</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.01839151605963707</v>
+        <v>0.01542109251022339</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.06700626015663147</v>
+        <v>0.01174703240394592</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.09793999046087265</v>
+        <v>0.003202307969331741</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.1999712437391281</v>
+        <v>0.009393231943249702</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.01564671657979488</v>
+        <v>0.008833847939968109</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.006084742024540901</v>
+        <v>0.005812732502818108</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.01461304351687431</v>
+        <v>0.01466188859194517</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.03627698868513107</v>
+        <v>0.00496769743040204</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.01136469841003418</v>
+        <v>0.003044697223231196</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.006543815601617098</v>
+        <v>0.02632438018918037</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.07225596904754639</v>
+        <v>0.008861000649631023</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.08234612643718719</v>
+        <v>0.001288044964894652</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.01814472489058971</v>
+        <v>0.007102520205080509</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.04596537351608276</v>
+        <v>0.001535851275548339</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.03093349933624268</v>
+        <v>8.66224872879684e-05</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.03857667744159698</v>
+        <v>0.02187457494437695</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.0249430239200592</v>
+        <v>0.006835273001343012</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.009473230689764023</v>
+        <v>0.003887441474944353</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.005415532737970352</v>
+        <v>0.002925107721239328</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.2649883031845093</v>
+        <v>0.008847400546073914</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.09358100593090057</v>
+        <v>0.007921113632619381</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.119737297296524</v>
+        <v>0.001111075980588794</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.01962374150753021</v>
+        <v>0.005923517979681492</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.008031112141907215</v>
+        <v>0.000977948191575706</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.001690175384283066</v>
+        <v>0.01043812651187181</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.02069902420043945</v>
+        <v>0.0008294368162751198</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.01328573748469353</v>
+        <v>0.003000666387379169</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.03735186159610748</v>
+        <v>0.001546519692055881</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.06714855134487152</v>
+        <v>0.000460771145299077</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.01214504148811102</v>
+        <v>0.0002544490853324533</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.09598009288311005</v>
+        <v>0.001793769421055913</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.01797594502568245</v>
+        <v>0.006271248683333397</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.1127530038356781</v>
+        <v>0.01681257784366608</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.03938024118542671</v>
+        <v>0.02126665413379669</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.07812134921550751</v>
+        <v>0.001173389260657132</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.013811856508255</v>
+        <v>0.006446820683777332</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.02075264975428581</v>
+        <v>0.01196786295622587</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.05500555410981178</v>
+        <v>0.002593519864603877</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.03586436808109283</v>
+        <v>0.003169927047565579</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.1064954251050949</v>
+        <v>0.009794685989618301</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.02175136283040047</v>
+        <v>0.0001825579674914479</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.02442791312932968</v>
+        <v>0.001198698068037629</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.004539940506219864</v>
+        <v>0.008670767769217491</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.00668250722810626</v>
+        <v>0.002553287195041776</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.02770676650106907</v>
+        <v>0.004212602972984314</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.02451086789369583</v>
+        <v>0.0007159791421145201</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.09043852984905243</v>
+        <v>0.001407136209309101</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.01447365246713161</v>
+        <v>0.0004336016718298197</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.1132339015603065</v>
+        <v>0.0003941272152587771</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.02673446014523506</v>
+        <v>0.004356352146714926</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.1435639560222626</v>
+        <v>0.009467655792832375</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.1459043174982071</v>
+        <v>0.02772348187863827</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.08945200592279434</v>
+        <v>0.005326599813997746</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.04460237175226212</v>
+        <v>0.01424068119376898</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.1214337646961212</v>
+        <v>0.002718928270041943</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.07481008023023605</v>
+        <v>0.00398374255746603</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.002339083701372147</v>
+        <v>0.01729079708456993</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.01309719681739807</v>
+        <v>0.005638336297124624</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.02169841900467873</v>
+        <v>0.005465734750032425</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.05580512434244156</v>
+        <v>0.004344390705227852</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.05214668065309525</v>
+        <v>0.009323400445282459</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.02393295615911484</v>
+        <v>0.006548841018229723</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.0684020146727562</v>
+        <v>0.002981986850500107</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.03496301919221878</v>
+        <v>0.001196700264699757</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.03278478980064392</v>
+        <v>0.0002957244869321585</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.02749918401241302</v>
+        <v>0.011296640150249</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.01400551199913025</v>
+        <v>0.001738498685881495</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.006345890928059816</v>
+        <v>0.0005333541193976998</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.01081385649740696</v>
+        <v>0.003053118940442801</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.007702748291194439</v>
+        <v>0.004093507304787636</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.0158601850271225</v>
+        <v>0.002789866644889116</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.01538622193038464</v>
+        <v>0.005514890886843204</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.03441448509693146</v>
+        <v>0.004757986404001713</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.01492754835635424</v>
+        <v>8.500693365931511e-05</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.009295893833041191</v>
+        <v>0.003194017801433802</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.005741051398217678</v>
+        <v>0.006351422518491745</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.03271921724081039</v>
+        <v>0.0007985460106283426</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.05916857719421387</v>
+        <v>0.002431149827316403</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.09400102496147156</v>
+        <v>7.927903061499819e-05</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.02813230827450752</v>
+        <v>0.0006049358053132892</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.03487576544284821</v>
+        <v>0.004687369335442781</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.0491100437939167</v>
+        <v>0.001766812289133668</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.1296620219945908</v>
+        <v>0.002140453550964594</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.01051212474703789</v>
+        <v>0.003093896899372339</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.130873441696167</v>
+        <v>0.001373303821310401</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.05328074097633362</v>
+        <v>0.006730553694069386</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.0452268011868</v>
+        <v>0.006307018455117941</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.01825966686010361</v>
+        <v>0.003893093438819051</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.009835015051066875</v>
+        <v>0.003425650298595428</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.02594695799052715</v>
+        <v>0.00296392641030252</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.06512908637523651</v>
+        <v>0.003956046421080828</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.06621342152357101</v>
+        <v>0.004257814027369022</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.03560540825128555</v>
+        <v>0.003248362801969051</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.06238741055130959</v>
+        <v>0.001875124522484839</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.005721788853406906</v>
+        <v>0.0009619805496186018</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.01025428157299757</v>
+        <v>0.0005454818601720035</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.02347890287637711</v>
+        <v>0.009065860882401466</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.006201809272170067</v>
+        <v>0.001122629619203508</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.005759082734584808</v>
+        <v>0.002848917152732611</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.05460271611809731</v>
+        <v>0.0004438519827090204</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.08722370862960815</v>
+        <v>0.002705453429371119</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.01393857691437006</v>
+        <v>0.0007481009233742952</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.1087139770388603</v>
+        <v>0.002871013712137938</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.01414192467927933</v>
+        <v>0.004200192168354988</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.008789718151092529</v>
+        <v>0.004219247493892908</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.01199520938098431</v>
+        <v>0.003422933397814631</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.0008113738149404526</v>
+        <v>0.001259922748431563</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.0080440454185009</v>
+        <v>0.003748645540326834</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.04362279176712036</v>
+        <v>0.003996919374912977</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.06309475749731064</v>
+        <v>0.001266135135665536</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.0214009415358305</v>
+        <v>0.002284979214891791</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.05796278268098831</v>
+        <v>0.003222991013899446</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.04341324418783188</v>
+        <v>0.005049631930887699</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.007037155330181122</v>
+        <v>0.004393718205392361</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.004079809412360191</v>
+        <v>0.0008999277488328516</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.02277811616659164</v>
+        <v>0.001419591018930078</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.02462814375758171</v>
+        <v>0.006377632729709148</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.0446329303085804</v>
+        <v>0.01173891872167587</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.1084242463111877</v>
+        <v>0.004103054292500019</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.07480771094560623</v>
+        <v>0.001196963246911764</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.009451773017644882</v>
+        <v>0.004270284436643124</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.05840916186571121</v>
+        <v>0.004263289738446474</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.005243809893727303</v>
+        <v>0.004475581459701061</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.06049283593893051</v>
+        <v>0.01249432191252708</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.01554557308554649</v>
+        <v>0.006000615190714598</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.05050512403249741</v>
+        <v>0.0116137657314539</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.0949820950627327</v>
+        <v>0.005612440872937441</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.0883171409368515</v>
+        <v>0.01194204483181238</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.05151255056262016</v>
+        <v>0.006712649017572403</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.03947456181049347</v>
+        <v>0.004627580288797617</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.04527096077799797</v>
+        <v>0.001105137984268367</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.009089497849345207</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0.004337550140917301</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01439241878688335</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0004123721737414598</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.004958875942975283</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01763090863823891</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.006449667736887932</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.004327078349888325</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0009392729261890054</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.00734922057017684</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.003373648039996624</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01262580789625645</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.005624140612781048</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01826390624046326</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01808834262192249</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.004843749571591616</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.00367453508079052</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.002434578724205494</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.002528399229049683</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.002826414536684752</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.001223289174959064</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0005323429359123111</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.00308964541181922</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0.00348777836188674</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0008735581068322062</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.00106669426895678</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.001140155713073909</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.003196135861799121</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.0003429311327636242</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0006074876873753965</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.003381260205060244</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.003392249578610063</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.004883425310254097</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.005638693924993277</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.005479832179844379</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.0004051374271512032</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.0007375868735834956</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.003114419989287853</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.007695686537772417</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.001793158589862287</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.0001312503591179848</v>
+        <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.003378004767000675</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.0006518550217151642</v>
+        <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.001222228398546576</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.0009993221610784531</v>
+        <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.003836299991235137</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.002185457851737738</v>
+        <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.001515188254415989</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.01483320444822311</v>
+        <v>0</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.007756979204714298</v>
+        <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.01009736023843288</v>
+        <v>0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.01041985582560301</v>
+        <v>0</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.005621793679893017</v>
+        <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.001592491520568728</v>
+        <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.002278822008520365</v>
+        <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.006054502446204424</v>
+        <v>0</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.002585591515526175</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.004056579899042845</v>
+        <v>0</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.008903074078261852</v>
+        <v>0</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.005109705962240696</v>
+        <v>0</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.01025992631912231</v>
+        <v>0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.00776941142976284</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.003397753927856684</v>
+        <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.002348439767956734</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.006294433493167162</v>
+        <v>0</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.005782647524029016</v>
+        <v>0</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.0006587473908439279</v>
+        <v>0</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.002788091078400612</v>
+        <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.002884610323235393</v>
+        <v>0</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.002750612329691648</v>
+        <v>0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.003729054937139153</v>
+        <v>0</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.003932962194085121</v>
+        <v>0</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.003228873014450073</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.0008691455004736781</v>
+        <v>0</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.006077203899621964</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.00158109562471509</v>
+        <v>0</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.009466792456805706</v>
+        <v>0</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.01065158378332853</v>
+        <v>0</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.005239221733063459</v>
+        <v>0</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.008791615255177021</v>
+        <v>0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.002509857295081019</v>
+        <v>0</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.002769043436273932</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.0009023384773172438</v>
+        <v>0</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.002210448263213038</v>
+        <v>0</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.002785065211355686</v>
+        <v>0</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.0008702853228896856</v>
+        <v>0</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.003696372034028172</v>
+        <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.0009634046582505107</v>
+        <v>0</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.0003229907306376845</v>
+        <v>0</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.001125837326981127</v>
+        <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.002154267858713865</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.001287949504330754</v>
+        <v>0</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.006048646755516529</v>
+        <v>0</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.001724794739857316</v>
+        <v>0</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.003546394407749176</v>
+        <v>0</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.002873696619644761</v>
+        <v>0</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.004594550468027592</v>
+        <v>0</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.005542044993489981</v>
+        <v>0</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.0008264521602541208</v>
+        <v>0</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.004440127406269312</v>
+        <v>0</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.001073031919077039</v>
+        <v>0</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.001974855316802859</v>
+        <v>0</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.0009600210469216108</v>
+        <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.001674831146374345</v>
+        <v>0</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.005347109399735928</v>
+        <v>0</v>
       </c>
       <c r="DB14" t="n">
-        <v>0.001191269839182496</v>
+        <v>0</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.0002215569256804883</v>
+        <v>0</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.001093964674510062</v>
+        <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.000143042707350105</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.009911878034472466</v>
+        <v>0</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.001536466530524194</v>
+        <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.008738931268453598</v>
+        <v>0</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.003164262510836124</v>
+        <v>0</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.005382334813475609</v>
+        <v>0</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.008277825079858303</v>
+        <v>0</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.0005038611125200987</v>
+        <v>0</v>
       </c>
       <c r="DM14" t="n">
-        <v>0.008321091532707214</v>
+        <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.001877084490843117</v>
+        <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.003924326039850712</v>
+        <v>0</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.002618341008201241</v>
+        <v>0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.005831871181726456</v>
+        <v>0</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.002965547144412994</v>
+        <v>0</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.001299739815294743</v>
+        <v>0</v>
       </c>
       <c r="DT14" t="n">
-        <v>0.001345959724858403</v>
+        <v>0</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.002212033374235034</v>
+        <v>0</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.002093526301905513</v>
+        <v>0</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.0005832745227962732</v>
+        <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.0007081055082380772</v>
+        <v>0</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.0005394081235863268</v>
+        <v>0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>8.964282460510731e-05</v>
+        <v>0</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.0005930584156885743</v>
+        <v>0</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.002132761524990201</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.002308569615706801</v>
+        <v>0</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.002945634070783854</v>
+        <v>0</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.002686003223061562</v>
+        <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.0004977933131158352</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.00421073567122221</v>
+        <v>0</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.003128085052594543</v>
+        <v>0</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.001800662605091929</v>
+        <v>0</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.003770060371607542</v>
+        <v>0</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.005075884982943535</v>
+        <v>0</v>
       </c>
       <c r="EL14" t="n">
-        <v>0.001724023837596178</v>
+        <v>0</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.001873556175269186</v>
+        <v>0</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.002295036800205708</v>
+        <v>0</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.002195339184254408</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0.0045290132984519</v>
+        <v>0</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.0003533167182467878</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.0006546666845679283</v>
+        <v>0</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.006810686551034451</v>
+        <v>0</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.0001550090964883566</v>
+        <v>0</v>
       </c>
       <c r="EU14" t="n">
-        <v>0.001772366580553353</v>
+        <v>0</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.00288806133903563</v>
+        <v>0</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.001270271488465369</v>
+        <v>0</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.002134212292730808</v>
+        <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.001316071022301912</v>
+        <v>0</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.001720546744763851</v>
+        <v>0</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.001257464871741831</v>
+        <v>0</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.001185938948765397</v>
+        <v>0</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.003923296928405762</v>
+        <v>0</v>
       </c>
       <c r="FD14" t="n">
-        <v>0.00173196557443589</v>
+        <v>0</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.0006895986152812839</v>
+        <v>0</v>
       </c>
       <c r="FF14" t="n">
-        <v>0.001921550370752811</v>
+        <v>0</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.004350297152996063</v>
+        <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.006029003299772739</v>
+        <v>0</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.00292368745431304</v>
+        <v>0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.002343782223761082</v>
+        <v>0</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.005567257758229971</v>
+        <v>0</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.005316652357578278</v>
+        <v>0</v>
       </c>
       <c r="FM14" t="n">
-        <v>0.001106695039197803</v>
+        <v>0</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.00239567318931222</v>
+        <v>0</v>
       </c>
       <c r="FO14" t="n">
-        <v>0.001777529600076377</v>
+        <v>0</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.005788267590105534</v>
+        <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.004925773479044437</v>
+        <v>0</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.002877743449062109</v>
+        <v>0</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.007024559192359447</v>
+        <v>0</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.001015067100524902</v>
+        <v>0</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.008450913242995739</v>
+        <v>0</v>
       </c>
       <c r="FV14" t="n">
-        <v>0.0006768766324967146</v>
+        <v>0</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.0007985213305801153</v>
+        <v>0</v>
       </c>
       <c r="FX14" t="n">
-        <v>0.001919570146128535</v>
+        <v>0</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.003858508542180061</v>
+        <v>0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0.005655710585415363</v>
+        <v>0</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.0003460779553279281</v>
+        <v>0</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.006719937082380056</v>
+        <v>0</v>
       </c>
       <c r="GC14" t="n">
-        <v>0.007725367788225412</v>
+        <v>0</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.0004552809987217188</v>
+        <v>0</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.0006942844484001398</v>
+        <v>0</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.00239353533834219</v>
+        <v>0</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.003094995394349098</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.03086357936263084</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.114047572016716</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.06442110985517502</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.04148614406585693</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1307028383016586</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.00745226489380002</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.05193254351615906</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.01204896811395884</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.04816148802638054</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01731887087225914</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.07358475774526596</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0445631667971611</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.07357557117938995</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1850914806127548</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.03758701682090759</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.04007458686828613</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.0176257211714983</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.03817376866936684</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.01173283811658621</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.04618693143129349</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.001238381373696029</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.007840230129659176</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.02424610778689384</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.02532139793038368</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.00167326454538852</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.0007603329140692949</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.0007537296623922884</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.01094656996428967</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.03849664330482483</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.01360661815851927</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.01348323002457619</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.0004444243386387825</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.02321104146540165</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.01723214611411095</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.02141229808330536</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.01157069951295853</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.01205131504684687</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.05885104835033417</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.002070796443149447</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.00807685125619173</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.01745809800922871</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.03071001917123795</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.01115888543426991</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.0268898569047451</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.0298554003238678</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.06025804579257965</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.1555466651916504</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0.04384229704737663</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0.02973180636763573</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0.01797152683138847</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0.01183436345309019</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0.03642283380031586</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0.01526098325848579</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0.03704144433140755</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0.01643550395965576</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0.01818846166133881</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0.02783980779349804</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0.04656307399272919</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0.1207215860486031</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0.02284256368875504</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0.007765968795865774</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0.01450574677437544</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0.04334212094545364</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0.03967670351266861</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0.04440073296427727</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>0.0166324470192194</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>0.0376100093126297</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0.1171054914593697</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>0.0202159695327282</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>0.02136712521314621</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>0.04565046727657318</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>0.01624114811420441</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0.036716029047966</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>0.06992410123348236</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0.06533464789390564</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0.008153541944921017</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0.0002993301022797823</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>0.006257203873246908</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0.04251027852296829</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>0.00431122537702322</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>0.01112858392298222</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>0.005766828544437885</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0.02576014026999474</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0.003964953124523163</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0.0260433554649353</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0.02512980625033379</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0.005807354580610991</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>0.0002235998399555683</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>0.001513633411377668</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0.01142157334834337</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0.06445611268281937</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0.02776951156556606</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>0.01741184294223785</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>0.0303267277777195</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0.008598390966653824</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>0.02623383887112141</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>0.005547823384404182</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>0.008572558872401714</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>0.001464062486775219</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>0.00751130934804678</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>0.0141034284606576</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>0.001796033582650125</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>0.02167339809238911</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>0.02644706331193447</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>0.005965006072074175</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>0.002761401701718569</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>0.001476374920457602</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>0.01709262654185295</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>0.02001260034739971</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>0.08930326998233795</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>0.00647867564111948</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>0.03809370100498199</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>0.02297084964811802</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>0.04310175031423569</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>0.04769197478890419</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>0.02860451862215996</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>0.008975273929536343</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>0.02648491039872169</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>0.02562973834574223</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>0.007624771911650896</v>
+      </c>
+      <c r="DQ15" t="n">
+        <v>0.02200786396861076</v>
+      </c>
+      <c r="DR15" t="n">
+        <v>0.0007751232478767633</v>
+      </c>
+      <c r="DS15" t="n">
+        <v>0.01988519169390202</v>
+      </c>
+      <c r="DT15" t="n">
+        <v>0.01475626043975353</v>
+      </c>
+      <c r="DU15" t="n">
+        <v>0.02552494779229164</v>
+      </c>
+      <c r="DV15" t="n">
+        <v>0.01887303963303566</v>
+      </c>
+      <c r="DW15" t="n">
+        <v>0.03488999605178833</v>
+      </c>
+      <c r="DX15" t="n">
+        <v>0.006604420486837626</v>
+      </c>
+      <c r="DY15" t="n">
+        <v>0.01000242959707975</v>
+      </c>
+      <c r="DZ15" t="n">
+        <v>0.03888481110334396</v>
+      </c>
+      <c r="EA15" t="n">
+        <v>0.02509506978094578</v>
+      </c>
+      <c r="EB15" t="n">
+        <v>0.03204833343625069</v>
+      </c>
+      <c r="EC15" t="n">
+        <v>0.01938971318304539</v>
+      </c>
+      <c r="ED15" t="n">
+        <v>0.003209502436220646</v>
+      </c>
+      <c r="EE15" t="n">
+        <v>0.008237580768764019</v>
+      </c>
+      <c r="EF15" t="n">
+        <v>0.007214284967631102</v>
+      </c>
+      <c r="EG15" t="n">
+        <v>0.009226007387042046</v>
+      </c>
+      <c r="EH15" t="n">
+        <v>0.004931233357638121</v>
+      </c>
+      <c r="EI15" t="n">
+        <v>0.03940292075276375</v>
+      </c>
+      <c r="EJ15" t="n">
+        <v>0.02899158746004105</v>
+      </c>
+      <c r="EK15" t="n">
+        <v>0.01813130266964436</v>
+      </c>
+      <c r="EL15" t="n">
+        <v>0.02423266507685184</v>
+      </c>
+      <c r="EM15" t="n">
+        <v>0.01554515119642019</v>
+      </c>
+      <c r="EN15" t="n">
+        <v>0.02066678553819656</v>
+      </c>
+      <c r="EO15" t="n">
+        <v>0.01406373269855976</v>
+      </c>
+      <c r="EP15" t="n">
+        <v>0.006666903384029865</v>
+      </c>
+      <c r="EQ15" t="n">
+        <v>0.0315515361726284</v>
+      </c>
+      <c r="ER15" t="n">
+        <v>0.005441290326416492</v>
+      </c>
+      <c r="ES15" t="n">
+        <v>0.02822106890380383</v>
+      </c>
+      <c r="ET15" t="n">
+        <v>0.0112704336643219</v>
+      </c>
+      <c r="EU15" t="n">
+        <v>0.02490088157355785</v>
+      </c>
+      <c r="EV15" t="n">
+        <v>0.01724489592015743</v>
+      </c>
+      <c r="EW15" t="n">
+        <v>0.03516515716910362</v>
+      </c>
+      <c r="EX15" t="n">
+        <v>0.006184790283441544</v>
+      </c>
+      <c r="EY15" t="n">
+        <v>0.01453076116740704</v>
+      </c>
+      <c r="EZ15" t="n">
+        <v>0.001495983218774199</v>
+      </c>
+      <c r="FA15" t="n">
+        <v>0.02744377963244915</v>
+      </c>
+      <c r="FB15" t="n">
+        <v>0.03255492076277733</v>
+      </c>
+      <c r="FC15" t="n">
+        <v>0.008262860588729382</v>
+      </c>
+      <c r="FD15" t="n">
+        <v>0.003103805240243673</v>
+      </c>
+      <c r="FE15" t="n">
+        <v>0.0004300308064557612</v>
+      </c>
+      <c r="FF15" t="n">
+        <v>0.007860823534429073</v>
+      </c>
+      <c r="FG15" t="n">
+        <v>0.04814270511269569</v>
+      </c>
+      <c r="FH15" t="n">
+        <v>0.0332900732755661</v>
+      </c>
+      <c r="FI15" t="n">
+        <v>0.023856271058321</v>
+      </c>
+      <c r="FJ15" t="n">
+        <v>0.007621153257787228</v>
+      </c>
+      <c r="FK15" t="n">
+        <v>0.01711449772119522</v>
+      </c>
+      <c r="FL15" t="n">
+        <v>0.003624563803896308</v>
+      </c>
+      <c r="FM15" t="n">
+        <v>0.02688107267022133</v>
+      </c>
+      <c r="FN15" t="n">
+        <v>0.02598337270319462</v>
+      </c>
+      <c r="FO15" t="n">
+        <v>0.01479048561304808</v>
+      </c>
+      <c r="FP15" t="n">
+        <v>0.0168162677437067</v>
+      </c>
+      <c r="FQ15" t="n">
+        <v>0.01314506679773331</v>
+      </c>
+      <c r="FR15" t="n">
+        <v>0.03570446744561195</v>
+      </c>
+      <c r="FS15" t="n">
+        <v>0.08216044306755066</v>
+      </c>
+      <c r="FT15" t="n">
+        <v>0.04463142901659012</v>
+      </c>
+      <c r="FU15" t="n">
+        <v>0.001102256122976542</v>
+      </c>
+      <c r="FV15" t="n">
+        <v>0.01086058467626572</v>
+      </c>
+      <c r="FW15" t="n">
+        <v>0.03936813399195671</v>
+      </c>
+      <c r="FX15" t="n">
+        <v>0.008170614019036293</v>
+      </c>
+      <c r="FY15" t="n">
+        <v>0.01403181068599224</v>
+      </c>
+      <c r="FZ15" t="n">
+        <v>0.02965125255286694</v>
+      </c>
+      <c r="GA15" t="n">
+        <v>0.01761110499501228</v>
+      </c>
+      <c r="GB15" t="n">
+        <v>0.04848411306738853</v>
+      </c>
+      <c r="GC15" t="n">
+        <v>0.0009786278242245317</v>
+      </c>
+      <c r="GD15" t="n">
+        <v>0.04589315876364708</v>
+      </c>
+      <c r="GE15" t="n">
+        <v>0.04322196543216705</v>
+      </c>
+      <c r="GF15" t="n">
+        <v>0.003387385280802846</v>
+      </c>
+      <c r="GG15" t="n">
+        <v>0.004732729867100716</v>
       </c>
     </row>
   </sheetData>
